--- a/java知识总结.xlsx
+++ b/java知识总结.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\资料\学习资料\Java\javadome\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\javadome\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E331188-D853-466C-B9B7-A8EEF758F96F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDEE7E30-5FA6-4801-B3BF-31A80F286290}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="java" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="693">
   <si>
     <t>类别</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6441,6 +6441,89 @@
 &lt;version&gt;1.0-SNAPSHOT&lt;/version&gt;
 &lt;/dependency&gt;
 2、建立properties/yml文件，定义注入到原工程中的@ConfigurationProperties标注类</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微服务
+应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>概念</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微服务是一种架构风格，是以开发一组小型服务的方式来作为一个独立的应用系统，每个服务都运行在自已的进程中，服务之间采用轻量级的HTTP通信机制 ( 通常是采用HTTP的RESTful API )进行通信。这些服务都是围绕具体业务进行构建的，并且可以独立部署到生产环境上。这些服务可以用不同的编程语言编写，并且可以使用不同的数据存储技术。对这些微服务我们只需要使用一个非常轻量级的集中式管理来进行协调。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微服务架构图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微服务架构的优缺点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>优点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. 易于开发和维护：一个微服务只会关注一个特定的业务功能，所以业务清晰、代码量较少。开发和
+维护单个微服务相对简单。
+2. 单个微服务启动较快
+3. 局部修改容易部署：单一应用只要有修改，就得重新部署整个应用。微服务解决了这样的问题。一般来说，对某个微服务进行修改，只需要重新部署这个服务即可。
+4. 技术栈不受限制：在微服务架构中，可以结合项目业务及团队的特点，合理的选择技术栈。
+5. 按需伸缩：可根据需求，实现细粒度的扩展。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>缺点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. 运维要求高：更多的服务意味着要投入更多的运维。
+2. 分布式固有的复杂性：使用微服务构建的是分布式系统。对于一个分布式系统，系统容错、网络延迟、分布式事务等都会带来巨大的问题。
+3. 接口调整成本高：微服务之间通过接口进行通信。如果修改某一个微服务的API，可能所有用到这
+个接口的微服务都需要进行调整。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6589,7 +6672,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -6672,9 +6755,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6685,6 +6765,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6704,6 +6793,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9377,6 +9472,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>53788</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>53786</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5814305</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>3673475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77E06959-E360-4C8B-96F3-16C605CBCD9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2474259" y="1114183"/>
+          <a:ext cx="5760517" cy="3619689"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -9646,15 +9790,15 @@
       <selection activeCell="D217" sqref="D217"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="88.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="88.21875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -9668,11 +9812,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:4" s="3" customFormat="1" ht="27.85" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="31" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="10" t="s">
@@ -9682,17 +9826,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="3" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="27"/>
+    <row r="3" spans="1:4" s="3" customFormat="1" ht="148.55000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="10" t="s">
         <v>54</v>
       </c>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30"/>
-      <c r="B4" s="27"/>
+    <row r="4" spans="1:4" s="3" customFormat="1" ht="27.85" x14ac:dyDescent="0.25">
+      <c r="A4" s="29"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="10" t="s">
         <v>5</v>
       </c>
@@ -9700,9 +9844,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="30"/>
-      <c r="B5" s="27"/>
+    <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="10" t="s">
         <v>10</v>
       </c>
@@ -9710,9 +9854,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="30"/>
-      <c r="B6" s="27"/>
+    <row r="6" spans="1:4" ht="41.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="29"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="10" t="s">
         <v>534</v>
       </c>
@@ -9720,9 +9864,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="30"/>
-      <c r="B7" s="27"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="29"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="10" t="s">
         <v>12</v>
       </c>
@@ -9730,17 +9874,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="123" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="30"/>
-      <c r="B8" s="27"/>
+    <row r="8" spans="1:4" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="29"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="30"/>
-      <c r="B9" s="27"/>
+    <row r="9" spans="1:4" ht="27.85" x14ac:dyDescent="0.25">
+      <c r="A9" s="29"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="10" t="s">
         <v>15</v>
       </c>
@@ -9748,9 +9892,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A10" s="30"/>
-      <c r="B10" s="27" t="s">
+    <row r="10" spans="1:4" ht="55.7" x14ac:dyDescent="0.25">
+      <c r="A10" s="29"/>
+      <c r="B10" s="31" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -9760,9 +9904,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="30"/>
-      <c r="B11" s="27"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="29"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="10" t="s">
         <v>20</v>
       </c>
@@ -9770,9 +9914,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="30"/>
-      <c r="B12" s="27"/>
+    <row r="12" spans="1:4" ht="27.85" x14ac:dyDescent="0.25">
+      <c r="A12" s="29"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="10" t="s">
         <v>22</v>
       </c>
@@ -9780,17 +9924,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="182.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="30"/>
-      <c r="B13" s="27"/>
+    <row r="13" spans="1:4" ht="182.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="29"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="10" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="30"/>
-      <c r="B14" s="27"/>
+    <row r="14" spans="1:4" ht="69.599999999999994" x14ac:dyDescent="0.25">
+      <c r="A14" s="29"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="10" t="s">
         <v>25</v>
       </c>
@@ -9798,41 +9942,41 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="30"/>
-      <c r="B15" s="27"/>
+    <row r="15" spans="1:4" ht="161.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="29"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="10" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="30"/>
-      <c r="B16" s="27"/>
+    <row r="16" spans="1:4" ht="144.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="29"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="30"/>
-      <c r="B17" s="27"/>
+    <row r="17" spans="1:4" ht="135.69999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="29"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="132" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="30"/>
-      <c r="B18" s="27"/>
+    <row r="18" spans="1:4" ht="132.05000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="29"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A19" s="30"/>
-      <c r="B19" s="27"/>
+    <row r="19" spans="1:4" ht="55.7" x14ac:dyDescent="0.25">
+      <c r="A19" s="29"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="10" t="s">
         <v>31</v>
       </c>
@@ -9840,9 +9984,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="30"/>
-      <c r="B20" s="27"/>
+    <row r="20" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="29"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="10" t="s">
         <v>33</v>
       </c>
@@ -9850,9 +9994,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="30"/>
-      <c r="B21" s="27"/>
+    <row r="21" spans="1:4" ht="45.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="29"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="10" t="s">
         <v>41</v>
       </c>
@@ -9860,9 +10004,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="30"/>
-      <c r="B22" s="27"/>
+    <row r="22" spans="1:4" ht="61" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="29"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="10" t="s">
         <v>43</v>
       </c>
@@ -9870,9 +10014,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="30"/>
-      <c r="B23" s="27"/>
+    <row r="23" spans="1:4" ht="21.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="29"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="10" t="s">
         <v>60</v>
       </c>
@@ -9880,9 +10024,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="30"/>
-      <c r="B24" s="27"/>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="29"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="10" t="s">
         <v>34</v>
       </c>
@@ -9890,9 +10034,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="30"/>
-      <c r="B25" s="27"/>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="29"/>
+      <c r="B25" s="31"/>
       <c r="C25" s="10" t="s">
         <v>35</v>
       </c>
@@ -9900,9 +10044,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="30"/>
-      <c r="B26" s="27"/>
+    <row r="26" spans="1:4" ht="69.599999999999994" x14ac:dyDescent="0.25">
+      <c r="A26" s="29"/>
+      <c r="B26" s="31"/>
       <c r="C26" s="10" t="s">
         <v>38</v>
       </c>
@@ -9910,9 +10054,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="30"/>
-      <c r="B27" s="27"/>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="29"/>
+      <c r="B27" s="31"/>
       <c r="C27" s="10" t="s">
         <v>45</v>
       </c>
@@ -9920,9 +10064,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="30"/>
-      <c r="B28" s="27"/>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="29"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="10" t="s">
         <v>48</v>
       </c>
@@ -9930,9 +10074,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="30"/>
-      <c r="B29" s="27"/>
+    <row r="29" spans="1:4" ht="153.1" x14ac:dyDescent="0.25">
+      <c r="A29" s="29"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="10" t="s">
         <v>50</v>
       </c>
@@ -9940,9 +10084,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="30"/>
-      <c r="B30" s="27"/>
+    <row r="30" spans="1:4" ht="97.45" x14ac:dyDescent="0.25">
+      <c r="A30" s="29"/>
+      <c r="B30" s="31"/>
       <c r="C30" s="10" t="s">
         <v>52</v>
       </c>
@@ -9950,17 +10094,17 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="190.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="30"/>
-      <c r="B31" s="27"/>
+    <row r="31" spans="1:4" ht="190.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="29"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="10" t="s">
         <v>55</v>
       </c>
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="30"/>
-      <c r="B32" s="27"/>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="29"/>
+      <c r="B32" s="31"/>
       <c r="C32" s="10" t="s">
         <v>56</v>
       </c>
@@ -9968,9 +10112,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="30"/>
-      <c r="B33" s="27"/>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="29"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="10" t="s">
         <v>58</v>
       </c>
@@ -9978,9 +10122,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="30"/>
-      <c r="B34" s="27" t="s">
+    <row r="34" spans="1:4" ht="97.45" x14ac:dyDescent="0.25">
+      <c r="A34" s="29"/>
+      <c r="B34" s="31" t="s">
         <v>63</v>
       </c>
       <c r="C34" s="10" t="s">
@@ -9990,9 +10134,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="30"/>
-      <c r="B35" s="27"/>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="29"/>
+      <c r="B35" s="31"/>
       <c r="C35" s="10" t="s">
         <v>67</v>
       </c>
@@ -10000,9 +10144,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="30"/>
-      <c r="B36" s="27"/>
+    <row r="36" spans="1:4" ht="41.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="29"/>
+      <c r="B36" s="31"/>
       <c r="C36" s="10" t="s">
         <v>70</v>
       </c>
@@ -10010,9 +10154,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="30"/>
-      <c r="B37" s="27"/>
+    <row r="37" spans="1:4" ht="41.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="29"/>
+      <c r="B37" s="31"/>
       <c r="C37" s="10" t="s">
         <v>71</v>
       </c>
@@ -10020,9 +10164,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="30"/>
-      <c r="B38" s="27"/>
+    <row r="38" spans="1:4" ht="41.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="29"/>
+      <c r="B38" s="31"/>
       <c r="C38" s="10" t="s">
         <v>73</v>
       </c>
@@ -10030,9 +10174,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="30"/>
-      <c r="B39" s="27"/>
+    <row r="39" spans="1:4" ht="27.85" x14ac:dyDescent="0.25">
+      <c r="A39" s="29"/>
+      <c r="B39" s="31"/>
       <c r="C39" s="10" t="s">
         <v>75</v>
       </c>
@@ -10040,9 +10184,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="30"/>
-      <c r="B40" s="27"/>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="29"/>
+      <c r="B40" s="31"/>
       <c r="C40" s="10" t="s">
         <v>77</v>
       </c>
@@ -10050,41 +10194,41 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="137.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="30"/>
-      <c r="B41" s="27"/>
+    <row r="41" spans="1:4" ht="137.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="29"/>
+      <c r="B41" s="31"/>
       <c r="C41" s="10" t="s">
         <v>79</v>
       </c>
       <c r="D41" s="6"/>
     </row>
-    <row r="42" spans="1:4" ht="257.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="30"/>
-      <c r="B42" s="27"/>
+    <row r="42" spans="1:4" ht="257.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="29"/>
+      <c r="B42" s="31"/>
       <c r="C42" s="10" t="s">
         <v>80</v>
       </c>
       <c r="D42" s="6"/>
     </row>
-    <row r="43" spans="1:4" ht="230.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="30"/>
-      <c r="B43" s="27"/>
+    <row r="43" spans="1:4" ht="230.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="29"/>
+      <c r="B43" s="31"/>
       <c r="C43" s="10" t="s">
         <v>81</v>
       </c>
       <c r="D43" s="6"/>
     </row>
-    <row r="44" spans="1:4" ht="247.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="30"/>
-      <c r="B44" s="27"/>
+    <row r="44" spans="1:4" ht="247.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="29"/>
+      <c r="B44" s="31"/>
       <c r="C44" s="10" t="s">
         <v>82</v>
       </c>
       <c r="D44" s="6"/>
     </row>
-    <row r="45" spans="1:4" ht="213.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="30"/>
-      <c r="B45" s="27"/>
+    <row r="45" spans="1:4" ht="208.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="29"/>
+      <c r="B45" s="31"/>
       <c r="C45" s="10" t="s">
         <v>83</v>
       </c>
@@ -10092,9 +10236,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="30"/>
-      <c r="B46" s="27" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="29"/>
+      <c r="B46" s="31" t="s">
         <v>85</v>
       </c>
       <c r="C46" s="10" t="s">
@@ -10104,9 +10248,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="30"/>
-      <c r="B47" s="27"/>
+    <row r="47" spans="1:4" ht="41.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="29"/>
+      <c r="B47" s="31"/>
       <c r="C47" s="10" t="s">
         <v>96</v>
       </c>
@@ -10114,9 +10258,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="30"/>
-      <c r="B48" s="27"/>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="29"/>
+      <c r="B48" s="31"/>
       <c r="C48" s="10" t="s">
         <v>87</v>
       </c>
@@ -10124,9 +10268,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="30"/>
-      <c r="B49" s="27"/>
+    <row r="49" spans="1:4" ht="69.599999999999994" x14ac:dyDescent="0.25">
+      <c r="A49" s="29"/>
+      <c r="B49" s="31"/>
       <c r="C49" s="10" t="s">
         <v>89</v>
       </c>
@@ -10134,9 +10278,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="30"/>
-      <c r="B50" s="27"/>
+    <row r="50" spans="1:4" ht="41.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="29"/>
+      <c r="B50" s="31"/>
       <c r="C50" s="10" t="s">
         <v>91</v>
       </c>
@@ -10144,9 +10288,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A51" s="30"/>
-      <c r="B51" s="27" t="s">
+    <row r="51" spans="1:4" ht="69.599999999999994" x14ac:dyDescent="0.25">
+      <c r="A51" s="29"/>
+      <c r="B51" s="31" t="s">
         <v>110</v>
       </c>
       <c r="C51" s="10" t="s">
@@ -10156,9 +10300,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="30"/>
-      <c r="B52" s="27"/>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="29"/>
+      <c r="B52" s="31"/>
       <c r="C52" s="10" t="s">
         <v>94</v>
       </c>
@@ -10166,9 +10310,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A53" s="30"/>
-      <c r="B53" s="27"/>
+    <row r="53" spans="1:4" ht="55.7" x14ac:dyDescent="0.25">
+      <c r="A53" s="29"/>
+      <c r="B53" s="31"/>
       <c r="C53" s="10" t="s">
         <v>98</v>
       </c>
@@ -10176,9 +10320,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="30"/>
-      <c r="B54" s="27"/>
+    <row r="54" spans="1:4" ht="27.85" x14ac:dyDescent="0.25">
+      <c r="A54" s="29"/>
+      <c r="B54" s="31"/>
       <c r="C54" s="10" t="s">
         <v>100</v>
       </c>
@@ -10186,9 +10330,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="200.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="30"/>
-      <c r="B55" s="27"/>
+    <row r="55" spans="1:4" ht="200.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="29"/>
+      <c r="B55" s="31"/>
       <c r="C55" s="10" t="s">
         <v>102</v>
       </c>
@@ -10196,9 +10340,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="30"/>
-      <c r="B56" s="27"/>
+    <row r="56" spans="1:4" ht="27.85" x14ac:dyDescent="0.25">
+      <c r="A56" s="29"/>
+      <c r="B56" s="31"/>
       <c r="C56" s="10" t="s">
         <v>104</v>
       </c>
@@ -10206,9 +10350,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="30"/>
-      <c r="B57" s="27"/>
+    <row r="57" spans="1:4" ht="83.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="29"/>
+      <c r="B57" s="31"/>
       <c r="C57" s="10" t="s">
         <v>106</v>
       </c>
@@ -10216,9 +10360,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="30"/>
-      <c r="B58" s="27"/>
+    <row r="58" spans="1:4" ht="27.85" x14ac:dyDescent="0.25">
+      <c r="A58" s="29"/>
+      <c r="B58" s="31"/>
       <c r="C58" s="10" t="s">
         <v>108</v>
       </c>
@@ -10226,9 +10370,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="30"/>
-      <c r="B59" s="27" t="s">
+    <row r="59" spans="1:4" ht="69.599999999999994" x14ac:dyDescent="0.25">
+      <c r="A59" s="29"/>
+      <c r="B59" s="31" t="s">
         <v>111</v>
       </c>
       <c r="C59" s="10" t="s">
@@ -10238,9 +10382,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="30"/>
-      <c r="B60" s="27"/>
+    <row r="60" spans="1:4" ht="41.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="29"/>
+      <c r="B60" s="31"/>
       <c r="C60" s="10" t="s">
         <v>113</v>
       </c>
@@ -10248,9 +10392,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="30"/>
-      <c r="B61" s="27"/>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="29"/>
+      <c r="B61" s="31"/>
       <c r="C61" s="10" t="s">
         <v>115</v>
       </c>
@@ -10258,9 +10402,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="185.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="30"/>
-      <c r="B62" s="27"/>
+    <row r="62" spans="1:4" ht="208.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="29"/>
+      <c r="B62" s="31"/>
       <c r="C62" s="10" t="s">
         <v>118</v>
       </c>
@@ -10268,9 +10412,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="114" x14ac:dyDescent="0.2">
-      <c r="A63" s="30"/>
-      <c r="B63" s="27" t="s">
+    <row r="63" spans="1:4" ht="111.35" x14ac:dyDescent="0.25">
+      <c r="A63" s="29"/>
+      <c r="B63" s="31" t="s">
         <v>119</v>
       </c>
       <c r="C63" s="10" t="s">
@@ -10280,9 +10424,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A64" s="30"/>
-      <c r="B64" s="27"/>
+    <row r="64" spans="1:4" ht="97.45" x14ac:dyDescent="0.25">
+      <c r="A64" s="29"/>
+      <c r="B64" s="31"/>
       <c r="C64" s="10" t="s">
         <v>121</v>
       </c>
@@ -10290,9 +10434,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A65" s="30"/>
-      <c r="B65" s="27"/>
+    <row r="65" spans="1:4" ht="69.599999999999994" x14ac:dyDescent="0.25">
+      <c r="A65" s="29"/>
+      <c r="B65" s="31"/>
       <c r="C65" s="10" t="s">
         <v>123</v>
       </c>
@@ -10300,9 +10444,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="30"/>
-      <c r="B66" s="27"/>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="29"/>
+      <c r="B66" s="31"/>
       <c r="C66" s="10" t="s">
         <v>125</v>
       </c>
@@ -10310,9 +10454,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="30"/>
-      <c r="B67" s="27"/>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="29"/>
+      <c r="B67" s="31"/>
       <c r="C67" s="10" t="s">
         <v>127</v>
       </c>
@@ -10320,9 +10464,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="30"/>
-      <c r="B68" s="27"/>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="29"/>
+      <c r="B68" s="31"/>
       <c r="C68" s="10" t="s">
         <v>129</v>
       </c>
@@ -10330,9 +10474,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="30"/>
-      <c r="B69" s="27"/>
+    <row r="69" spans="1:4" ht="27.85" x14ac:dyDescent="0.25">
+      <c r="A69" s="29"/>
+      <c r="B69" s="31"/>
       <c r="C69" s="10" t="s">
         <v>131</v>
       </c>
@@ -10340,9 +10484,9 @@
         <v>132</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="30"/>
-      <c r="B70" s="27"/>
+    <row r="70" spans="1:4" ht="125.25" x14ac:dyDescent="0.25">
+      <c r="A70" s="29"/>
+      <c r="B70" s="31"/>
       <c r="C70" s="10" t="s">
         <v>133</v>
       </c>
@@ -10350,9 +10494,9 @@
         <v>134</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="30"/>
-      <c r="B71" s="27"/>
+    <row r="71" spans="1:4" ht="41.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="29"/>
+      <c r="B71" s="31"/>
       <c r="C71" s="10" t="s">
         <v>135</v>
       </c>
@@ -10360,9 +10504,9 @@
         <v>136</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="30"/>
-      <c r="B72" s="27"/>
+    <row r="72" spans="1:4" ht="55.7" x14ac:dyDescent="0.25">
+      <c r="A72" s="29"/>
+      <c r="B72" s="31"/>
       <c r="C72" s="10" t="s">
         <v>137</v>
       </c>
@@ -10370,9 +10514,9 @@
         <v>138</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A73" s="30"/>
-      <c r="B73" s="27" t="s">
+    <row r="73" spans="1:4" ht="55.7" x14ac:dyDescent="0.25">
+      <c r="A73" s="29"/>
+      <c r="B73" s="31" t="s">
         <v>139</v>
       </c>
       <c r="C73" s="10" t="s">
@@ -10382,9 +10526,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A74" s="30"/>
-      <c r="B74" s="27"/>
+    <row r="74" spans="1:4" ht="55.7" x14ac:dyDescent="0.25">
+      <c r="A74" s="29"/>
+      <c r="B74" s="31"/>
       <c r="C74" s="10" t="s">
         <v>141</v>
       </c>
@@ -10392,9 +10536,9 @@
         <v>142</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="30"/>
-      <c r="B75" s="27"/>
+    <row r="75" spans="1:4" ht="27.85" x14ac:dyDescent="0.25">
+      <c r="A75" s="29"/>
+      <c r="B75" s="31"/>
       <c r="C75" s="10" t="s">
         <v>143</v>
       </c>
@@ -10402,9 +10546,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A76" s="30"/>
-      <c r="B76" s="27"/>
+    <row r="76" spans="1:4" ht="55.7" x14ac:dyDescent="0.25">
+      <c r="A76" s="29"/>
+      <c r="B76" s="31"/>
       <c r="C76" s="10" t="s">
         <v>145</v>
       </c>
@@ -10412,9 +10556,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A77" s="30"/>
-      <c r="B77" s="27" t="s">
+    <row r="77" spans="1:4" ht="55.7" x14ac:dyDescent="0.25">
+      <c r="A77" s="29"/>
+      <c r="B77" s="31" t="s">
         <v>147</v>
       </c>
       <c r="C77" s="10" t="s">
@@ -10424,9 +10568,9 @@
         <v>148</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A78" s="30"/>
-      <c r="B78" s="27"/>
+    <row r="78" spans="1:4" ht="41.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="29"/>
+      <c r="B78" s="31"/>
       <c r="C78" s="10" t="s">
         <v>149</v>
       </c>
@@ -10434,9 +10578,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="114" x14ac:dyDescent="0.2">
-      <c r="A79" s="30"/>
-      <c r="B79" s="27"/>
+    <row r="79" spans="1:4" ht="111.35" x14ac:dyDescent="0.25">
+      <c r="A79" s="29"/>
+      <c r="B79" s="31"/>
       <c r="C79" s="10" t="s">
         <v>151</v>
       </c>
@@ -10444,9 +10588,9 @@
         <v>152</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A80" s="30"/>
-      <c r="B80" s="27"/>
+    <row r="80" spans="1:4" ht="55.7" x14ac:dyDescent="0.25">
+      <c r="A80" s="29"/>
+      <c r="B80" s="31"/>
       <c r="C80" s="10" t="s">
         <v>153</v>
       </c>
@@ -10454,9 +10598,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="30"/>
-      <c r="B81" s="27"/>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="29"/>
+      <c r="B81" s="31"/>
       <c r="C81" s="10" t="s">
         <v>155</v>
       </c>
@@ -10464,9 +10608,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="30"/>
-      <c r="B82" s="27" t="s">
+    <row r="82" spans="1:4" ht="27.85" x14ac:dyDescent="0.25">
+      <c r="A82" s="29"/>
+      <c r="B82" s="31" t="s">
         <v>157</v>
       </c>
       <c r="C82" s="10" t="s">
@@ -10476,9 +10620,9 @@
         <v>158</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="30"/>
-      <c r="B83" s="27"/>
+    <row r="83" spans="1:4" ht="27.85" x14ac:dyDescent="0.25">
+      <c r="A83" s="29"/>
+      <c r="B83" s="31"/>
       <c r="C83" s="10" t="s">
         <v>159</v>
       </c>
@@ -10486,9 +10630,9 @@
         <v>160</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="30"/>
-      <c r="B84" s="27" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="29"/>
+      <c r="B84" s="31" t="s">
         <v>161</v>
       </c>
       <c r="C84" s="10" t="s">
@@ -10498,9 +10642,9 @@
         <v>162</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="30"/>
-      <c r="B85" s="27"/>
+    <row r="85" spans="1:4" ht="41.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="29"/>
+      <c r="B85" s="31"/>
       <c r="C85" s="10" t="s">
         <v>163</v>
       </c>
@@ -10508,8 +10652,8 @@
         <v>164</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A86" s="30"/>
+    <row r="86" spans="1:4" ht="41.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="29"/>
       <c r="B86" s="12" t="s">
         <v>165</v>
       </c>
@@ -10520,8 +10664,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A87" s="30"/>
+    <row r="87" spans="1:4" ht="27.85" x14ac:dyDescent="0.25">
+      <c r="A87" s="29"/>
       <c r="B87" s="12" t="s">
         <v>169</v>
       </c>
@@ -10532,9 +10676,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A88" s="30"/>
-      <c r="B88" s="27" t="s">
+    <row r="88" spans="1:4" ht="69.599999999999994" x14ac:dyDescent="0.25">
+      <c r="A88" s="29"/>
+      <c r="B88" s="31" t="s">
         <v>168</v>
       </c>
       <c r="C88" s="10" t="s">
@@ -10544,9 +10688,9 @@
         <v>170</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A89" s="30"/>
-      <c r="B89" s="27"/>
+    <row r="89" spans="1:4" ht="55.7" x14ac:dyDescent="0.25">
+      <c r="A89" s="29"/>
+      <c r="B89" s="31"/>
       <c r="C89" s="10" t="s">
         <v>171</v>
       </c>
@@ -10554,9 +10698,9 @@
         <v>172</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="30"/>
-      <c r="B90" s="27"/>
+    <row r="90" spans="1:4" ht="39.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="29"/>
+      <c r="B90" s="31"/>
       <c r="C90" s="10" t="s">
         <v>173</v>
       </c>
@@ -10564,9 +10708,9 @@
         <v>174</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A91" s="30"/>
-      <c r="B91" s="27" t="s">
+    <row r="91" spans="1:4" ht="27.85" x14ac:dyDescent="0.25">
+      <c r="A91" s="29"/>
+      <c r="B91" s="31" t="s">
         <v>175</v>
       </c>
       <c r="C91" s="10" t="s">
@@ -10576,9 +10720,9 @@
         <v>176</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A92" s="30"/>
-      <c r="B92" s="27"/>
+    <row r="92" spans="1:4" ht="41.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="29"/>
+      <c r="B92" s="31"/>
       <c r="C92" s="10" t="s">
         <v>179</v>
       </c>
@@ -10586,9 +10730,9 @@
         <v>177</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A93" s="30"/>
-      <c r="B93" s="27"/>
+    <row r="93" spans="1:4" ht="111.35" x14ac:dyDescent="0.25">
+      <c r="A93" s="29"/>
+      <c r="B93" s="31"/>
       <c r="C93" s="10" t="s">
         <v>180</v>
       </c>
@@ -10596,9 +10740,9 @@
         <v>178</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A94" s="30"/>
-      <c r="B94" s="27"/>
+    <row r="94" spans="1:4" ht="41.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="29"/>
+      <c r="B94" s="31"/>
       <c r="C94" s="10" t="s">
         <v>181</v>
       </c>
@@ -10606,9 +10750,9 @@
         <v>182</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="228" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="30"/>
-      <c r="B95" s="27"/>
+    <row r="95" spans="1:4" ht="227.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="29"/>
+      <c r="B95" s="31"/>
       <c r="C95" s="10" t="s">
         <v>183</v>
       </c>
@@ -10616,9 +10760,9 @@
         <v>184</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A96" s="30"/>
-      <c r="B96" s="27"/>
+    <row r="96" spans="1:4" ht="55.7" x14ac:dyDescent="0.25">
+      <c r="A96" s="29"/>
+      <c r="B96" s="31"/>
       <c r="C96" s="10" t="s">
         <v>185</v>
       </c>
@@ -10626,9 +10770,9 @@
         <v>186</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A97" s="30"/>
-      <c r="B97" s="27"/>
+    <row r="97" spans="1:4" ht="41.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="29"/>
+      <c r="B97" s="31"/>
       <c r="C97" s="10" t="s">
         <v>187</v>
       </c>
@@ -10636,9 +10780,9 @@
         <v>188</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A98" s="30"/>
-      <c r="B98" s="27" t="s">
+    <row r="98" spans="1:4" ht="55.7" x14ac:dyDescent="0.25">
+      <c r="A98" s="29"/>
+      <c r="B98" s="31" t="s">
         <v>198</v>
       </c>
       <c r="C98" s="10" t="s">
@@ -10648,9 +10792,9 @@
         <v>189</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A99" s="30"/>
-      <c r="B99" s="27"/>
+    <row r="99" spans="1:4" ht="41.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="29"/>
+      <c r="B99" s="31"/>
       <c r="C99" s="10" t="s">
         <v>190</v>
       </c>
@@ -10658,9 +10802,9 @@
         <v>191</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="30"/>
-      <c r="B100" s="27"/>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="29"/>
+      <c r="B100" s="31"/>
       <c r="C100" s="10" t="s">
         <v>192</v>
       </c>
@@ -10668,9 +10812,9 @@
         <v>193</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A101" s="30"/>
-      <c r="B101" s="27"/>
+    <row r="101" spans="1:4" ht="41.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="29"/>
+      <c r="B101" s="31"/>
       <c r="C101" s="10" t="s">
         <v>195</v>
       </c>
@@ -10678,9 +10822,9 @@
         <v>194</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="30"/>
-      <c r="B102" s="27"/>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="29"/>
+      <c r="B102" s="31"/>
       <c r="C102" s="10" t="s">
         <v>196</v>
       </c>
@@ -10688,9 +10832,9 @@
         <v>197</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A103" s="30"/>
-      <c r="B103" s="27" t="s">
+    <row r="103" spans="1:4" ht="83.5" x14ac:dyDescent="0.25">
+      <c r="A103" s="29"/>
+      <c r="B103" s="31" t="s">
         <v>199</v>
       </c>
       <c r="C103" s="10" t="s">
@@ -10700,17 +10844,17 @@
         <v>200</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="30"/>
-      <c r="B104" s="27"/>
+    <row r="104" spans="1:4" ht="136.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="29"/>
+      <c r="B104" s="31"/>
       <c r="C104" s="10" t="s">
         <v>201</v>
       </c>
       <c r="D104" s="6"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="30"/>
-      <c r="B105" s="27" t="s">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="29"/>
+      <c r="B105" s="31" t="s">
         <v>202</v>
       </c>
       <c r="C105" s="10" t="s">
@@ -10720,9 +10864,9 @@
         <v>203</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A106" s="30"/>
-      <c r="B106" s="27"/>
+    <row r="106" spans="1:4" ht="27.85" x14ac:dyDescent="0.25">
+      <c r="A106" s="29"/>
+      <c r="B106" s="31"/>
       <c r="C106" s="10" t="s">
         <v>204</v>
       </c>
@@ -10730,9 +10874,9 @@
         <v>205</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A107" s="30"/>
-      <c r="B107" s="27"/>
+    <row r="107" spans="1:4" ht="55.7" x14ac:dyDescent="0.25">
+      <c r="A107" s="29"/>
+      <c r="B107" s="31"/>
       <c r="C107" s="10" t="s">
         <v>206</v>
       </c>
@@ -10740,9 +10884,9 @@
         <v>207</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A108" s="30"/>
-      <c r="B108" s="27"/>
+    <row r="108" spans="1:4" ht="83.5" x14ac:dyDescent="0.25">
+      <c r="A108" s="29"/>
+      <c r="B108" s="31"/>
       <c r="C108" s="10" t="s">
         <v>208</v>
       </c>
@@ -10750,9 +10894,9 @@
         <v>209</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="30"/>
-      <c r="B109" s="27"/>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="29"/>
+      <c r="B109" s="31"/>
       <c r="C109" s="10" t="s">
         <v>210</v>
       </c>
@@ -10760,9 +10904,9 @@
         <v>211</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A110" s="31"/>
-      <c r="B110" s="27"/>
+    <row r="110" spans="1:4" ht="97.45" x14ac:dyDescent="0.25">
+      <c r="A110" s="30"/>
+      <c r="B110" s="31"/>
       <c r="C110" s="10" t="s">
         <v>212</v>
       </c>
@@ -10770,11 +10914,11 @@
         <v>213</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" ht="41.75" x14ac:dyDescent="0.25">
       <c r="A111" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="B111" s="27" t="s">
+      <c r="B111" s="31" t="s">
         <v>215</v>
       </c>
       <c r="C111" s="10" t="s">
@@ -10784,9 +10928,9 @@
         <v>216</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" ht="41.75" x14ac:dyDescent="0.25">
       <c r="A112" s="32"/>
-      <c r="B112" s="27"/>
+      <c r="B112" s="31"/>
       <c r="C112" s="10" t="s">
         <v>217</v>
       </c>
@@ -10794,9 +10938,9 @@
         <v>218</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="114" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" ht="111.35" x14ac:dyDescent="0.25">
       <c r="A113" s="32"/>
-      <c r="B113" s="27"/>
+      <c r="B113" s="31"/>
       <c r="C113" s="10" t="s">
         <v>219</v>
       </c>
@@ -10804,9 +10948,9 @@
         <v>251</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="32"/>
-      <c r="B114" s="27" t="s">
+      <c r="B114" s="31" t="s">
         <v>220</v>
       </c>
       <c r="C114" s="10" t="s">
@@ -10816,9 +10960,9 @@
         <v>225</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="32"/>
-      <c r="B115" s="27"/>
+      <c r="B115" s="31"/>
       <c r="C115" s="10" t="s">
         <v>222</v>
       </c>
@@ -10826,9 +10970,9 @@
         <v>224</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" ht="27.85" x14ac:dyDescent="0.25">
       <c r="A116" s="32"/>
-      <c r="B116" s="27" t="s">
+      <c r="B116" s="31" t="s">
         <v>223</v>
       </c>
       <c r="C116" s="10" t="s">
@@ -10838,9 +10982,9 @@
         <v>252</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" ht="55.7" x14ac:dyDescent="0.25">
       <c r="A117" s="32"/>
-      <c r="B117" s="27"/>
+      <c r="B117" s="31"/>
       <c r="C117" s="10" t="s">
         <v>222</v>
       </c>
@@ -10848,9 +10992,9 @@
         <v>226</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" ht="27.85" x14ac:dyDescent="0.25">
       <c r="A118" s="32"/>
-      <c r="B118" s="27" t="s">
+      <c r="B118" s="31" t="s">
         <v>227</v>
       </c>
       <c r="C118" s="10" t="s">
@@ -10860,9 +11004,9 @@
         <v>228</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" ht="97.45" x14ac:dyDescent="0.25">
       <c r="A119" s="32"/>
-      <c r="B119" s="27"/>
+      <c r="B119" s="31"/>
       <c r="C119" s="10" t="s">
         <v>222</v>
       </c>
@@ -10870,9 +11014,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="32"/>
-      <c r="B120" s="27" t="s">
+      <c r="B120" s="31" t="s">
         <v>230</v>
       </c>
       <c r="C120" s="10" t="s">
@@ -10882,9 +11026,9 @@
         <v>231</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" ht="41.75" x14ac:dyDescent="0.25">
       <c r="A121" s="32"/>
-      <c r="B121" s="27"/>
+      <c r="B121" s="31"/>
       <c r="C121" s="10" t="s">
         <v>222</v>
       </c>
@@ -10892,9 +11036,9 @@
         <v>232</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" ht="27.85" x14ac:dyDescent="0.25">
       <c r="A122" s="32"/>
-      <c r="B122" s="27" t="s">
+      <c r="B122" s="31" t="s">
         <v>234</v>
       </c>
       <c r="C122" s="10" t="s">
@@ -10904,9 +11048,9 @@
         <v>233</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" ht="55.7" x14ac:dyDescent="0.25">
       <c r="A123" s="32"/>
-      <c r="B123" s="27"/>
+      <c r="B123" s="31"/>
       <c r="C123" s="10" t="s">
         <v>222</v>
       </c>
@@ -10914,9 +11058,9 @@
         <v>235</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="202.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" ht="202.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="32"/>
-      <c r="B124" s="27" t="s">
+      <c r="B124" s="31" t="s">
         <v>236</v>
       </c>
       <c r="C124" s="10" t="s">
@@ -10926,9 +11070,9 @@
         <v>237</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" ht="83.5" x14ac:dyDescent="0.25">
       <c r="A125" s="32"/>
-      <c r="B125" s="27"/>
+      <c r="B125" s="31"/>
       <c r="C125" s="10" t="s">
         <v>238</v>
       </c>
@@ -10936,9 +11080,9 @@
         <v>239</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="61.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" ht="61.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="32"/>
-      <c r="B126" s="27"/>
+      <c r="B126" s="31"/>
       <c r="C126" s="10" t="s">
         <v>240</v>
       </c>
@@ -10946,9 +11090,9 @@
         <v>241</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" ht="41.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="32"/>
-      <c r="B127" s="27"/>
+      <c r="B127" s="31"/>
       <c r="C127" s="10" t="s">
         <v>244</v>
       </c>
@@ -10956,9 +11100,9 @@
         <v>245</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="115.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" ht="115.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="32"/>
-      <c r="B128" s="27"/>
+      <c r="B128" s="31"/>
       <c r="C128" s="10" t="s">
         <v>242</v>
       </c>
@@ -10966,9 +11110,9 @@
         <v>243</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" ht="29.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="32"/>
-      <c r="B129" s="27" t="s">
+      <c r="B129" s="31" t="s">
         <v>246</v>
       </c>
       <c r="C129" s="10" t="s">
@@ -10978,9 +11122,9 @@
         <v>247</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" ht="41.75" x14ac:dyDescent="0.25">
       <c r="A130" s="32"/>
-      <c r="B130" s="27"/>
+      <c r="B130" s="31"/>
       <c r="C130" s="10" t="s">
         <v>248</v>
       </c>
@@ -10988,9 +11132,9 @@
         <v>249</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="32"/>
-      <c r="B131" s="27"/>
+      <c r="B131" s="31"/>
       <c r="C131" s="10" t="s">
         <v>250</v>
       </c>
@@ -10998,9 +11142,9 @@
         <v>253</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" ht="83.5" x14ac:dyDescent="0.25">
       <c r="A132" s="32"/>
-      <c r="B132" s="27"/>
+      <c r="B132" s="31"/>
       <c r="C132" s="10" t="s">
         <v>254</v>
       </c>
@@ -11008,9 +11152,9 @@
         <v>255</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="32"/>
-      <c r="B133" s="27"/>
+      <c r="B133" s="31"/>
       <c r="C133" s="10" t="s">
         <v>256</v>
       </c>
@@ -11018,9 +11162,9 @@
         <v>257</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" ht="46.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="32"/>
-      <c r="B134" s="27" t="s">
+      <c r="B134" s="31" t="s">
         <v>258</v>
       </c>
       <c r="C134" s="10" t="s">
@@ -11030,9 +11174,9 @@
         <v>260</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" ht="41.75" x14ac:dyDescent="0.25">
       <c r="A135" s="32"/>
-      <c r="B135" s="27"/>
+      <c r="B135" s="31"/>
       <c r="C135" s="10" t="s">
         <v>261</v>
       </c>
@@ -11040,9 +11184,9 @@
         <v>262</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" ht="27.85" x14ac:dyDescent="0.25">
       <c r="A136" s="32"/>
-      <c r="B136" s="27"/>
+      <c r="B136" s="31"/>
       <c r="C136" s="10" t="s">
         <v>264</v>
       </c>
@@ -11050,9 +11194,9 @@
         <v>265</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" ht="69.599999999999994" x14ac:dyDescent="0.25">
       <c r="A137" s="32"/>
-      <c r="B137" s="27"/>
+      <c r="B137" s="31"/>
       <c r="C137" s="10" t="s">
         <v>266</v>
       </c>
@@ -11060,9 +11204,9 @@
         <v>267</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" ht="55.7" x14ac:dyDescent="0.25">
       <c r="A138" s="32"/>
-      <c r="B138" s="27"/>
+      <c r="B138" s="31"/>
       <c r="C138" s="10" t="s">
         <v>268</v>
       </c>
@@ -11070,9 +11214,9 @@
         <v>269</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="32"/>
-      <c r="B139" s="27"/>
+      <c r="B139" s="31"/>
       <c r="C139" s="10" t="s">
         <v>271</v>
       </c>
@@ -11080,9 +11224,9 @@
         <v>270</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="32"/>
-      <c r="B140" s="27" t="s">
+      <c r="B140" s="31" t="s">
         <v>272</v>
       </c>
       <c r="C140" s="10" t="s">
@@ -11092,9 +11236,9 @@
         <v>273</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" ht="69.599999999999994" x14ac:dyDescent="0.25">
       <c r="A141" s="32"/>
-      <c r="B141" s="27"/>
+      <c r="B141" s="31"/>
       <c r="C141" s="10" t="s">
         <v>280</v>
       </c>
@@ -11102,9 +11246,9 @@
         <v>281</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" ht="27.85" x14ac:dyDescent="0.25">
       <c r="A142" s="32"/>
-      <c r="B142" s="27"/>
+      <c r="B142" s="31"/>
       <c r="C142" s="10" t="s">
         <v>274</v>
       </c>
@@ -11112,9 +11256,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" ht="27.85" x14ac:dyDescent="0.25">
       <c r="A143" s="32"/>
-      <c r="B143" s="27"/>
+      <c r="B143" s="31"/>
       <c r="C143" s="10" t="s">
         <v>276</v>
       </c>
@@ -11122,9 +11266,9 @@
         <v>277</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" ht="27.85" x14ac:dyDescent="0.25">
       <c r="A144" s="32"/>
-      <c r="B144" s="27"/>
+      <c r="B144" s="31"/>
       <c r="C144" s="10" t="s">
         <v>278</v>
       </c>
@@ -11132,9 +11276,9 @@
         <v>279</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" ht="41.75" x14ac:dyDescent="0.25">
       <c r="A145" s="32"/>
-      <c r="B145" s="27"/>
+      <c r="B145" s="31"/>
       <c r="C145" s="10" t="s">
         <v>282</v>
       </c>
@@ -11142,9 +11286,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" ht="83.5" x14ac:dyDescent="0.25">
       <c r="A146" s="32"/>
-      <c r="B146" s="27"/>
+      <c r="B146" s="31"/>
       <c r="C146" s="10" t="s">
         <v>284</v>
       </c>
@@ -11152,9 +11296,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="185.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" ht="185.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="32"/>
-      <c r="B147" s="27" t="s">
+      <c r="B147" s="31" t="s">
         <v>295</v>
       </c>
       <c r="C147" s="10" t="s">
@@ -11164,9 +11308,9 @@
         <v>287</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="199.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" ht="199.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="32"/>
-      <c r="B148" s="27"/>
+      <c r="B148" s="31"/>
       <c r="C148" s="10" t="s">
         <v>288</v>
       </c>
@@ -11174,9 +11318,9 @@
         <v>289</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="382.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" ht="382.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="32"/>
-      <c r="B149" s="27"/>
+      <c r="B149" s="31"/>
       <c r="C149" s="10" t="s">
         <v>47</v>
       </c>
@@ -11184,9 +11328,9 @@
         <v>290</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="266.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" ht="266.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="32"/>
-      <c r="B150" s="27"/>
+      <c r="B150" s="31"/>
       <c r="C150" s="10" t="s">
         <v>291</v>
       </c>
@@ -11194,9 +11338,9 @@
         <v>292</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="290.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" ht="290.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="32"/>
-      <c r="B151" s="27"/>
+      <c r="B151" s="31"/>
       <c r="C151" s="10" t="s">
         <v>293</v>
       </c>
@@ -11204,9 +11348,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" ht="69.599999999999994" x14ac:dyDescent="0.25">
       <c r="A152" s="32"/>
-      <c r="B152" s="27" t="s">
+      <c r="B152" s="31" t="s">
         <v>296</v>
       </c>
       <c r="C152" s="10" t="s">
@@ -11216,9 +11360,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" ht="55.7" x14ac:dyDescent="0.25">
       <c r="A153" s="32"/>
-      <c r="B153" s="27"/>
+      <c r="B153" s="31"/>
       <c r="C153" s="10" t="s">
         <v>221</v>
       </c>
@@ -11226,9 +11370,9 @@
         <v>298</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" ht="27.85" x14ac:dyDescent="0.25">
       <c r="A154" s="32"/>
-      <c r="B154" s="27" t="s">
+      <c r="B154" s="31" t="s">
         <v>299</v>
       </c>
       <c r="C154" s="10" t="s">
@@ -11238,9 +11382,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="183" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" ht="183.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="32"/>
-      <c r="B155" s="27"/>
+      <c r="B155" s="31"/>
       <c r="C155" s="10" t="s">
         <v>302</v>
       </c>
@@ -11248,9 +11392,9 @@
         <v>303</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" ht="125.25" x14ac:dyDescent="0.25">
       <c r="A156" s="32"/>
-      <c r="B156" s="27"/>
+      <c r="B156" s="31"/>
       <c r="C156" s="10" t="s">
         <v>304</v>
       </c>
@@ -11258,9 +11402,9 @@
         <v>305</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" ht="41.75" x14ac:dyDescent="0.25">
       <c r="A157" s="32"/>
-      <c r="B157" s="27" t="s">
+      <c r="B157" s="31" t="s">
         <v>306</v>
       </c>
       <c r="C157" s="10" t="s">
@@ -11270,9 +11414,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" ht="55.7" x14ac:dyDescent="0.25">
       <c r="A158" s="32"/>
-      <c r="B158" s="27"/>
+      <c r="B158" s="31"/>
       <c r="C158" s="10" t="s">
         <v>308</v>
       </c>
@@ -11280,9 +11424,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="256.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" ht="256.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="32"/>
-      <c r="B159" s="27"/>
+      <c r="B159" s="31"/>
       <c r="C159" s="10" t="s">
         <v>310</v>
       </c>
@@ -11290,9 +11434,9 @@
         <v>311</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" ht="27.85" x14ac:dyDescent="0.25">
       <c r="A160" s="32"/>
-      <c r="B160" s="27"/>
+      <c r="B160" s="31"/>
       <c r="C160" s="10" t="s">
         <v>312</v>
       </c>
@@ -11300,9 +11444,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="32"/>
-      <c r="B161" s="27"/>
+      <c r="B161" s="31"/>
       <c r="C161" s="10" t="s">
         <v>314</v>
       </c>
@@ -11310,7 +11454,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="32"/>
       <c r="B162" s="12" t="s">
         <v>316</v>
@@ -11322,9 +11466,9 @@
         <v>317</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" ht="55.7" x14ac:dyDescent="0.25">
       <c r="A163" s="32"/>
-      <c r="B163" s="27" t="s">
+      <c r="B163" s="31" t="s">
         <v>318</v>
       </c>
       <c r="C163" s="10" t="s">
@@ -11334,9 +11478,9 @@
         <v>319</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" ht="81.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="32"/>
-      <c r="B164" s="27"/>
+      <c r="B164" s="31"/>
       <c r="C164" s="10" t="s">
         <v>323</v>
       </c>
@@ -11344,9 +11488,9 @@
         <v>324</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="42.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" ht="43" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="32"/>
-      <c r="B165" s="27"/>
+      <c r="B165" s="31"/>
       <c r="C165" s="10" t="s">
         <v>322</v>
       </c>
@@ -11354,9 +11498,9 @@
         <v>325</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" ht="111.35" x14ac:dyDescent="0.25">
       <c r="A166" s="32"/>
-      <c r="B166" s="27"/>
+      <c r="B166" s="31"/>
       <c r="C166" s="10" t="s">
         <v>320</v>
       </c>
@@ -11364,9 +11508,9 @@
         <v>321</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="32"/>
-      <c r="B167" s="27" t="s">
+      <c r="B167" s="31" t="s">
         <v>326</v>
       </c>
       <c r="C167" s="10" t="s">
@@ -11376,9 +11520,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="307.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" ht="307.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="32"/>
-      <c r="B168" s="27"/>
+      <c r="B168" s="31"/>
       <c r="C168" s="10" t="s">
         <v>328</v>
       </c>
@@ -11386,9 +11530,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" ht="97.45" x14ac:dyDescent="0.25">
       <c r="A169" s="32"/>
-      <c r="B169" s="27"/>
+      <c r="B169" s="31"/>
       <c r="C169" s="10" t="s">
         <v>330</v>
       </c>
@@ -11396,9 +11540,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" ht="97.45" x14ac:dyDescent="0.25">
       <c r="A170" s="32"/>
-      <c r="B170" s="27"/>
+      <c r="B170" s="31"/>
       <c r="C170" s="10" t="s">
         <v>332</v>
       </c>
@@ -11406,9 +11550,9 @@
         <v>333</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" ht="27.85" x14ac:dyDescent="0.25">
       <c r="A171" s="32"/>
-      <c r="B171" s="27"/>
+      <c r="B171" s="31"/>
       <c r="C171" s="10" t="s">
         <v>334</v>
       </c>
@@ -11416,9 +11560,9 @@
         <v>335</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" ht="41.75" x14ac:dyDescent="0.25">
       <c r="A172" s="32"/>
-      <c r="B172" s="27"/>
+      <c r="B172" s="31"/>
       <c r="C172" s="10" t="s">
         <v>336</v>
       </c>
@@ -11426,9 +11570,9 @@
         <v>337</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="32"/>
-      <c r="B173" s="27"/>
+      <c r="B173" s="31"/>
       <c r="C173" s="10" t="s">
         <v>338</v>
       </c>
@@ -11436,9 +11580,9 @@
         <v>339</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="32"/>
-      <c r="B174" s="27"/>
+      <c r="B174" s="31"/>
       <c r="C174" s="10" t="s">
         <v>340</v>
       </c>
@@ -11446,9 +11590,9 @@
         <v>343</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="32"/>
-      <c r="B175" s="27"/>
+      <c r="B175" s="31"/>
       <c r="C175" s="10" t="s">
         <v>341</v>
       </c>
@@ -11456,9 +11600,9 @@
         <v>342</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="32"/>
-      <c r="B176" s="27" t="s">
+      <c r="B176" s="31" t="s">
         <v>344</v>
       </c>
       <c r="C176" s="10" t="s">
@@ -11468,9 +11612,9 @@
         <v>345</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10" ht="27.85" x14ac:dyDescent="0.25">
       <c r="A177" s="32"/>
-      <c r="B177" s="27"/>
+      <c r="B177" s="31"/>
       <c r="C177" s="10" t="s">
         <v>346</v>
       </c>
@@ -11479,9 +11623,9 @@
       </c>
       <c r="J177" s="1"/>
     </row>
-    <row r="178" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10" ht="69.599999999999994" x14ac:dyDescent="0.25">
       <c r="A178" s="32"/>
-      <c r="B178" s="27"/>
+      <c r="B178" s="31"/>
       <c r="C178" s="10" t="s">
         <v>348</v>
       </c>
@@ -11489,9 +11633,9 @@
         <v>349</v>
       </c>
     </row>
-    <row r="179" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:10" ht="55.7" x14ac:dyDescent="0.25">
       <c r="A179" s="32"/>
-      <c r="B179" s="27"/>
+      <c r="B179" s="31"/>
       <c r="C179" s="10" t="s">
         <v>350</v>
       </c>
@@ -11499,9 +11643,9 @@
         <v>351</v>
       </c>
     </row>
-    <row r="180" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:10" ht="27.85" x14ac:dyDescent="0.25">
       <c r="A180" s="32"/>
-      <c r="B180" s="27"/>
+      <c r="B180" s="31"/>
       <c r="C180" s="10" t="s">
         <v>352</v>
       </c>
@@ -11509,9 +11653,9 @@
         <v>353</v>
       </c>
     </row>
-    <row r="181" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10" ht="83.5" x14ac:dyDescent="0.25">
       <c r="A181" s="32"/>
-      <c r="B181" s="27"/>
+      <c r="B181" s="31"/>
       <c r="C181" s="10" t="s">
         <v>354</v>
       </c>
@@ -11519,9 +11663,9 @@
         <v>355</v>
       </c>
     </row>
-    <row r="182" spans="1:10" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:10" ht="90.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="32"/>
-      <c r="B182" s="27"/>
+      <c r="B182" s="31"/>
       <c r="C182" s="10" t="s">
         <v>356</v>
       </c>
@@ -11529,9 +11673,9 @@
         <v>360</v>
       </c>
     </row>
-    <row r="183" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:10" ht="69.599999999999994" x14ac:dyDescent="0.25">
       <c r="A183" s="32"/>
-      <c r="B183" s="27"/>
+      <c r="B183" s="31"/>
       <c r="C183" s="10" t="s">
         <v>357</v>
       </c>
@@ -11539,9 +11683,9 @@
         <v>361</v>
       </c>
     </row>
-    <row r="184" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:10" ht="27.85" x14ac:dyDescent="0.25">
       <c r="A184" s="32"/>
-      <c r="B184" s="27"/>
+      <c r="B184" s="31"/>
       <c r="C184" s="10" t="s">
         <v>358</v>
       </c>
@@ -11549,9 +11693,9 @@
         <v>359</v>
       </c>
     </row>
-    <row r="185" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:10" ht="27.85" x14ac:dyDescent="0.25">
       <c r="A185" s="32"/>
-      <c r="B185" s="27"/>
+      <c r="B185" s="31"/>
       <c r="C185" s="10" t="s">
         <v>362</v>
       </c>
@@ -11559,9 +11703,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="186" spans="1:10" ht="194.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10" ht="194.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="32"/>
-      <c r="B186" s="27" t="s">
+      <c r="B186" s="31" t="s">
         <v>364</v>
       </c>
       <c r="C186" s="10" t="s">
@@ -11571,9 +11715,9 @@
         <v>366</v>
       </c>
     </row>
-    <row r="187" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10" ht="69.599999999999994" x14ac:dyDescent="0.25">
       <c r="A187" s="32"/>
-      <c r="B187" s="27"/>
+      <c r="B187" s="31"/>
       <c r="C187" s="10" t="s">
         <v>367</v>
       </c>
@@ -11581,9 +11725,9 @@
         <v>368</v>
       </c>
     </row>
-    <row r="188" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:10" ht="69.599999999999994" x14ac:dyDescent="0.25">
       <c r="A188" s="32"/>
-      <c r="B188" s="27"/>
+      <c r="B188" s="31"/>
       <c r="C188" s="10" t="s">
         <v>369</v>
       </c>
@@ -11591,25 +11735,25 @@
         <v>370</v>
       </c>
     </row>
-    <row r="189" spans="1:10" ht="227.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:10" ht="227.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="32"/>
-      <c r="B189" s="27"/>
-      <c r="C189" s="26" t="s">
+      <c r="B189" s="31"/>
+      <c r="C189" s="33" t="s">
         <v>371</v>
       </c>
       <c r="D189" s="6"/>
     </row>
-    <row r="190" spans="1:10" ht="312" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10" ht="312.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="32"/>
-      <c r="B190" s="27"/>
-      <c r="C190" s="26"/>
+      <c r="B190" s="31"/>
+      <c r="C190" s="33"/>
       <c r="D190" s="9" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="191" spans="1:10" ht="242.25" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:10" ht="236.6" x14ac:dyDescent="0.25">
       <c r="A191" s="32"/>
-      <c r="B191" s="27"/>
+      <c r="B191" s="31"/>
       <c r="C191" s="10" t="s">
         <v>373</v>
       </c>
@@ -11617,9 +11761,9 @@
         <v>374</v>
       </c>
     </row>
-    <row r="192" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:10" ht="69.599999999999994" x14ac:dyDescent="0.25">
       <c r="A192" s="32"/>
-      <c r="B192" s="27"/>
+      <c r="B192" s="31"/>
       <c r="C192" s="10" t="s">
         <v>375</v>
       </c>
@@ -11627,9 +11771,9 @@
         <v>376</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" ht="69.599999999999994" x14ac:dyDescent="0.25">
       <c r="A193" s="32"/>
-      <c r="B193" s="27"/>
+      <c r="B193" s="31"/>
       <c r="C193" s="10" t="s">
         <v>377</v>
       </c>
@@ -11637,9 +11781,9 @@
         <v>378</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" ht="41.75" x14ac:dyDescent="0.25">
       <c r="A194" s="32"/>
-      <c r="B194" s="27"/>
+      <c r="B194" s="31"/>
       <c r="C194" s="10" t="s">
         <v>379</v>
       </c>
@@ -11647,9 +11791,9 @@
         <v>380</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" ht="55.7" x14ac:dyDescent="0.25">
       <c r="A195" s="32"/>
-      <c r="B195" s="27"/>
+      <c r="B195" s="31"/>
       <c r="C195" s="10" t="s">
         <v>381</v>
       </c>
@@ -11657,9 +11801,9 @@
         <v>382</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="114" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" ht="153.1" x14ac:dyDescent="0.25">
       <c r="A196" s="32"/>
-      <c r="B196" s="27"/>
+      <c r="B196" s="31"/>
       <c r="C196" s="10" t="s">
         <v>383</v>
       </c>
@@ -11667,9 +11811,9 @@
         <v>384</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="225.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" ht="225.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="32"/>
-      <c r="B197" s="27"/>
+      <c r="B197" s="31"/>
       <c r="C197" s="10" t="s">
         <v>385</v>
       </c>
@@ -11677,9 +11821,9 @@
         <v>386</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" ht="69.599999999999994" x14ac:dyDescent="0.25">
       <c r="A198" s="32"/>
-      <c r="B198" s="27"/>
+      <c r="B198" s="31"/>
       <c r="C198" s="10" t="s">
         <v>387</v>
       </c>
@@ -11687,9 +11831,9 @@
         <v>388</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" ht="41.75" x14ac:dyDescent="0.25">
       <c r="A199" s="32"/>
-      <c r="B199" s="27"/>
+      <c r="B199" s="31"/>
       <c r="C199" s="10" t="s">
         <v>389</v>
       </c>
@@ -11697,9 +11841,9 @@
         <v>390</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" ht="69.599999999999994" x14ac:dyDescent="0.25">
       <c r="A200" s="32"/>
-      <c r="B200" s="27"/>
+      <c r="B200" s="31"/>
       <c r="C200" s="10" t="s">
         <v>391</v>
       </c>
@@ -11707,17 +11851,17 @@
         <v>392</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="227.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" ht="227.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="32"/>
-      <c r="B201" s="27"/>
+      <c r="B201" s="31"/>
       <c r="C201" s="10" t="s">
         <v>393</v>
       </c>
       <c r="D201" s="6"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="32"/>
-      <c r="B202" s="27"/>
+      <c r="B202" s="31"/>
       <c r="C202" s="10" t="s">
         <v>394</v>
       </c>
@@ -11725,9 +11869,9 @@
         <v>395</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" ht="69.599999999999994" x14ac:dyDescent="0.25">
       <c r="A203" s="32"/>
-      <c r="B203" s="27"/>
+      <c r="B203" s="31"/>
       <c r="C203" s="10" t="s">
         <v>396</v>
       </c>
@@ -11735,9 +11879,9 @@
         <v>397</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" ht="83.5" x14ac:dyDescent="0.25">
       <c r="A204" s="32"/>
-      <c r="B204" s="27"/>
+      <c r="B204" s="31"/>
       <c r="C204" s="10" t="s">
         <v>398</v>
       </c>
@@ -11745,9 +11889,9 @@
         <v>399</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" ht="97.45" x14ac:dyDescent="0.25">
       <c r="A205" s="32"/>
-      <c r="B205" s="27"/>
+      <c r="B205" s="31"/>
       <c r="C205" s="10" t="s">
         <v>400</v>
       </c>
@@ -11755,9 +11899,9 @@
         <v>401</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" ht="27.85" x14ac:dyDescent="0.25">
       <c r="A206" s="32"/>
-      <c r="B206" s="27"/>
+      <c r="B206" s="31"/>
       <c r="C206" s="10" t="s">
         <v>402</v>
       </c>
@@ -11765,35 +11909,35 @@
         <v>403</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="241.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" ht="241.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="32"/>
-      <c r="B207" s="27"/>
-      <c r="C207" s="26" t="s">
+      <c r="B207" s="31"/>
+      <c r="C207" s="33" t="s">
         <v>404</v>
       </c>
       <c r="D207" s="9" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" ht="111.35" x14ac:dyDescent="0.25">
       <c r="A208" s="32"/>
-      <c r="B208" s="27"/>
-      <c r="C208" s="26"/>
+      <c r="B208" s="31"/>
+      <c r="C208" s="33"/>
       <c r="D208" s="6" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="171" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" ht="167" x14ac:dyDescent="0.25">
       <c r="A209" s="32"/>
-      <c r="B209" s="27"/>
-      <c r="C209" s="26"/>
+      <c r="B209" s="31"/>
+      <c r="C209" s="33"/>
       <c r="D209" s="6" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="32"/>
-      <c r="B210" s="27" t="s">
+      <c r="B210" s="31" t="s">
         <v>408</v>
       </c>
       <c r="C210" s="10" t="s">
@@ -11803,9 +11947,9 @@
         <v>410</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" ht="139.19999999999999" x14ac:dyDescent="0.25">
       <c r="A211" s="32"/>
-      <c r="B211" s="27"/>
+      <c r="B211" s="31"/>
       <c r="C211" s="10" t="s">
         <v>411</v>
       </c>
@@ -11813,9 +11957,9 @@
         <v>412</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" ht="55.7" x14ac:dyDescent="0.25">
       <c r="A212" s="32"/>
-      <c r="B212" s="27"/>
+      <c r="B212" s="31"/>
       <c r="C212" s="10" t="s">
         <v>413</v>
       </c>
@@ -11823,9 +11967,9 @@
         <v>414</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" ht="30.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="32"/>
-      <c r="B213" s="27" t="s">
+      <c r="B213" s="31" t="s">
         <v>415</v>
       </c>
       <c r="C213" s="10" t="s">
@@ -11835,9 +11979,9 @@
         <v>416</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" ht="41.75" x14ac:dyDescent="0.25">
       <c r="A214" s="32"/>
-      <c r="B214" s="27"/>
+      <c r="B214" s="31"/>
       <c r="C214" s="10" t="s">
         <v>417</v>
       </c>
@@ -11845,9 +11989,9 @@
         <v>418</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" ht="153.1" x14ac:dyDescent="0.25">
       <c r="A215" s="32"/>
-      <c r="B215" s="27"/>
+      <c r="B215" s="31"/>
       <c r="C215" s="10" t="s">
         <v>419</v>
       </c>
@@ -11855,9 +11999,9 @@
         <v>420</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="178.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" ht="178.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="32"/>
-      <c r="B216" s="27" t="s">
+      <c r="B216" s="31" t="s">
         <v>421</v>
       </c>
       <c r="C216" s="10" t="s">
@@ -11867,25 +12011,25 @@
         <v>438</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="327.75" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" ht="320.10000000000002" x14ac:dyDescent="0.25">
       <c r="A217" s="32"/>
-      <c r="B217" s="27"/>
-      <c r="C217" s="26" t="s">
+      <c r="B217" s="31"/>
+      <c r="C217" s="33" t="s">
         <v>222</v>
       </c>
       <c r="D217" s="6" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="286.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" ht="286.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="32"/>
-      <c r="B218" s="27"/>
-      <c r="C218" s="26"/>
+      <c r="B218" s="31"/>
+      <c r="C218" s="33"/>
       <c r="D218" s="6" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="226.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" ht="226.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="32"/>
       <c r="B219" s="12"/>
       <c r="C219" s="10" t="s">
@@ -11895,9 +12039,9 @@
         <v>437</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" ht="27.85" x14ac:dyDescent="0.25">
       <c r="A220" s="32"/>
-      <c r="B220" s="27" t="s">
+      <c r="B220" s="31" t="s">
         <v>441</v>
       </c>
       <c r="C220" s="10" t="s">
@@ -11907,9 +12051,9 @@
         <v>423</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" ht="27.85" x14ac:dyDescent="0.25">
       <c r="A221" s="32"/>
-      <c r="B221" s="27"/>
+      <c r="B221" s="31"/>
       <c r="C221" s="10" t="s">
         <v>424</v>
       </c>
@@ -11917,9 +12061,9 @@
         <v>425</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" ht="83.5" x14ac:dyDescent="0.25">
       <c r="A222" s="32"/>
-      <c r="B222" s="27"/>
+      <c r="B222" s="31"/>
       <c r="C222" s="10" t="s">
         <v>426</v>
       </c>
@@ -11927,9 +12071,9 @@
         <v>427</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" ht="27.85" x14ac:dyDescent="0.25">
       <c r="A223" s="32"/>
-      <c r="B223" s="27"/>
+      <c r="B223" s="31"/>
       <c r="C223" s="10" t="s">
         <v>428</v>
       </c>
@@ -11937,9 +12081,9 @@
         <v>429</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" ht="27.85" x14ac:dyDescent="0.25">
       <c r="A224" s="32"/>
-      <c r="B224" s="27"/>
+      <c r="B224" s="31"/>
       <c r="C224" s="10" t="s">
         <v>430</v>
       </c>
@@ -11947,9 +12091,9 @@
         <v>431</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="32"/>
-      <c r="B225" s="27"/>
+      <c r="B225" s="31"/>
       <c r="C225" s="10" t="s">
         <v>432</v>
       </c>
@@ -11957,9 +12101,9 @@
         <v>433</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" ht="27.85" x14ac:dyDescent="0.25">
       <c r="A226" s="32"/>
-      <c r="B226" s="27"/>
+      <c r="B226" s="31"/>
       <c r="C226" s="10" t="s">
         <v>434</v>
       </c>
@@ -11967,9 +12111,9 @@
         <v>435</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" ht="55.7" x14ac:dyDescent="0.25">
       <c r="A227" s="32"/>
-      <c r="B227" s="28" t="s">
+      <c r="B227" s="34" t="s">
         <v>442</v>
       </c>
       <c r="C227" s="16" t="s">
@@ -11979,9 +12123,9 @@
         <v>443</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A228" s="32"/>
-      <c r="B228" s="28"/>
+      <c r="B228" s="34"/>
       <c r="C228" s="17" t="s">
         <v>444</v>
       </c>
@@ -11989,9 +12133,9 @@
         <v>446</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" ht="111.35" x14ac:dyDescent="0.25">
       <c r="A229" s="32"/>
-      <c r="B229" s="28"/>
+      <c r="B229" s="34"/>
       <c r="C229" s="10" t="s">
         <v>447</v>
       </c>
@@ -11999,9 +12143,9 @@
         <v>549</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" ht="27.85" x14ac:dyDescent="0.25">
       <c r="A230" s="32"/>
-      <c r="B230" s="28"/>
+      <c r="B230" s="34"/>
       <c r="C230" s="16" t="s">
         <v>448</v>
       </c>
@@ -12009,9 +12153,9 @@
         <v>449</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" ht="69.599999999999994" x14ac:dyDescent="0.25">
       <c r="A231" s="32"/>
-      <c r="B231" s="28"/>
+      <c r="B231" s="34"/>
       <c r="C231" s="16" t="s">
         <v>450</v>
       </c>
@@ -12019,9 +12163,9 @@
         <v>451</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="255.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" ht="255.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="32"/>
-      <c r="B232" s="27" t="s">
+      <c r="B232" s="31" t="s">
         <v>452</v>
       </c>
       <c r="C232" s="10" t="s">
@@ -12031,9 +12175,9 @@
         <v>453</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" ht="55.7" x14ac:dyDescent="0.25">
       <c r="A233" s="32"/>
-      <c r="B233" s="27"/>
+      <c r="B233" s="31"/>
       <c r="C233" s="10" t="s">
         <v>454</v>
       </c>
@@ -12041,9 +12185,9 @@
         <v>455</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="256.5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" ht="250.5" x14ac:dyDescent="0.25">
       <c r="A234" s="32"/>
-      <c r="B234" s="27"/>
+      <c r="B234" s="31"/>
       <c r="C234" s="10" t="s">
         <v>456</v>
       </c>
@@ -12051,9 +12195,9 @@
         <v>457</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" ht="41.75" x14ac:dyDescent="0.25">
       <c r="A235" s="32"/>
-      <c r="B235" s="27"/>
+      <c r="B235" s="31"/>
       <c r="C235" s="10" t="s">
         <v>458</v>
       </c>
@@ -12061,9 +12205,9 @@
         <v>459</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" ht="41.75" x14ac:dyDescent="0.25">
       <c r="A236" s="32"/>
-      <c r="B236" s="27"/>
+      <c r="B236" s="31"/>
       <c r="C236" s="10" t="s">
         <v>460</v>
       </c>
@@ -12071,9 +12215,9 @@
         <v>461</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" ht="27.85" x14ac:dyDescent="0.25">
       <c r="A237" s="32"/>
-      <c r="B237" s="27"/>
+      <c r="B237" s="31"/>
       <c r="C237" s="10" t="s">
         <v>462</v>
       </c>
@@ -12081,9 +12225,9 @@
         <v>463</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" ht="55.7" x14ac:dyDescent="0.25">
       <c r="A238" s="32"/>
-      <c r="B238" s="27" t="s">
+      <c r="B238" s="31" t="s">
         <v>464</v>
       </c>
       <c r="C238" s="10" t="s">
@@ -12093,9 +12237,9 @@
         <v>465</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" ht="41.75" x14ac:dyDescent="0.25">
       <c r="A239" s="32"/>
-      <c r="B239" s="27"/>
+      <c r="B239" s="31"/>
       <c r="C239" s="10" t="s">
         <v>466</v>
       </c>
@@ -12103,9 +12247,9 @@
         <v>467</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="256.5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" ht="264.39999999999998" x14ac:dyDescent="0.25">
       <c r="A240" s="32"/>
-      <c r="B240" s="27"/>
+      <c r="B240" s="31"/>
       <c r="C240" s="10" t="s">
         <v>468</v>
       </c>
@@ -12113,9 +12257,9 @@
         <v>469</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="242.25" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" ht="236.6" x14ac:dyDescent="0.25">
       <c r="A241" s="32"/>
-      <c r="B241" s="27"/>
+      <c r="B241" s="31"/>
       <c r="C241" s="10" t="s">
         <v>470</v>
       </c>
@@ -12123,9 +12267,9 @@
         <v>472</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" ht="41.75" x14ac:dyDescent="0.25">
       <c r="A242" s="32"/>
-      <c r="B242" s="27"/>
+      <c r="B242" s="31"/>
       <c r="C242" s="10" t="s">
         <v>471</v>
       </c>
@@ -12135,6 +12279,36 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="C217:C218"/>
+    <mergeCell ref="B216:B218"/>
+    <mergeCell ref="B220:B226"/>
+    <mergeCell ref="B227:B231"/>
+    <mergeCell ref="B232:B237"/>
+    <mergeCell ref="C189:C190"/>
+    <mergeCell ref="C207:C209"/>
+    <mergeCell ref="B186:B209"/>
+    <mergeCell ref="B210:B212"/>
+    <mergeCell ref="B213:B215"/>
+    <mergeCell ref="B157:B161"/>
+    <mergeCell ref="B163:B166"/>
+    <mergeCell ref="B167:B175"/>
+    <mergeCell ref="B176:B185"/>
+    <mergeCell ref="B238:B242"/>
+    <mergeCell ref="B134:B139"/>
+    <mergeCell ref="B140:B146"/>
+    <mergeCell ref="B147:B151"/>
+    <mergeCell ref="B152:B153"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="B129:B133"/>
+    <mergeCell ref="B91:B97"/>
+    <mergeCell ref="B98:B102"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="B105:B110"/>
+    <mergeCell ref="B114:B115"/>
     <mergeCell ref="A2:A110"/>
     <mergeCell ref="B111:B113"/>
     <mergeCell ref="A111:A242"/>
@@ -12151,36 +12325,6 @@
     <mergeCell ref="B2:B9"/>
     <mergeCell ref="B10:B33"/>
     <mergeCell ref="B124:B128"/>
-    <mergeCell ref="B91:B97"/>
-    <mergeCell ref="B98:B102"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="B105:B110"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="B129:B133"/>
-    <mergeCell ref="B134:B139"/>
-    <mergeCell ref="B140:B146"/>
-    <mergeCell ref="B147:B151"/>
-    <mergeCell ref="B152:B153"/>
-    <mergeCell ref="B154:B156"/>
-    <mergeCell ref="B157:B161"/>
-    <mergeCell ref="B163:B166"/>
-    <mergeCell ref="B167:B175"/>
-    <mergeCell ref="B176:B185"/>
-    <mergeCell ref="B238:B242"/>
-    <mergeCell ref="C189:C190"/>
-    <mergeCell ref="C207:C209"/>
-    <mergeCell ref="B186:B209"/>
-    <mergeCell ref="B210:B212"/>
-    <mergeCell ref="B213:B215"/>
-    <mergeCell ref="C217:C218"/>
-    <mergeCell ref="B216:B218"/>
-    <mergeCell ref="B220:B226"/>
-    <mergeCell ref="B227:B231"/>
-    <mergeCell ref="B232:B237"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12197,15 +12341,15 @@
       <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="88.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="88.21875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -12219,11 +12363,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:4" ht="41.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
         <v>588</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="31" t="s">
         <v>477</v>
       </c>
       <c r="C2" s="20" t="s">
@@ -12233,9 +12377,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="139.19999999999999" x14ac:dyDescent="0.25">
       <c r="A3" s="32"/>
-      <c r="B3" s="27"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="20" t="s">
         <v>280</v>
       </c>
@@ -12243,9 +12387,9 @@
         <v>479</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="27.85" x14ac:dyDescent="0.25">
       <c r="A4" s="32"/>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="31" t="s">
         <v>476</v>
       </c>
       <c r="C4" s="20" t="s">
@@ -12255,9 +12399,9 @@
         <v>480</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="272.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="272.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32"/>
-      <c r="B5" s="27"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="20" t="s">
         <v>494</v>
       </c>
@@ -12265,9 +12409,9 @@
         <v>495</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="32"/>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="31" t="s">
         <v>475</v>
       </c>
       <c r="C6" s="20" t="s">
@@ -12277,9 +12421,9 @@
         <v>481</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="191.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="191.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32"/>
-      <c r="B7" s="27"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="20" t="s">
         <v>494</v>
       </c>
@@ -12287,9 +12431,9 @@
         <v>496</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.35">
       <c r="A8" s="32"/>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="31" t="s">
         <v>498</v>
       </c>
       <c r="C8" s="20" t="s">
@@ -12299,9 +12443,9 @@
         <v>474</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="285" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="292.25" x14ac:dyDescent="0.25">
       <c r="A9" s="32"/>
-      <c r="B9" s="27"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="20" t="s">
         <v>482</v>
       </c>
@@ -12309,77 +12453,77 @@
         <v>501</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="18" customFormat="1" ht="225.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" s="18" customFormat="1" ht="225.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="26" t="s">
+      <c r="B10" s="31"/>
+      <c r="C10" s="33" t="s">
         <v>500</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="204.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="205" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="26"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="13" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="255.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="255.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="26"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="13" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="147.05000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="26"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="33"/>
       <c r="D13" s="13" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="63.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="26"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="33"/>
       <c r="D14" s="13" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="63.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="26"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="33"/>
       <c r="D15" s="13" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="76.349999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="76.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="26" t="s">
+      <c r="B16" s="31"/>
+      <c r="C16" s="33" t="s">
         <v>518</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="62.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="62.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="26"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="33"/>
       <c r="D17" s="13" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="143.44999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="143.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="32"/>
-      <c r="B18" s="27"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="20" t="s">
         <v>521</v>
       </c>
@@ -12387,9 +12531,9 @@
         <v>584</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="185.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="185.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="32"/>
-      <c r="B19" s="27"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="20" t="s">
         <v>497</v>
       </c>
@@ -12397,29 +12541,29 @@
         <v>499</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="252" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="252" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="32"/>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="31" t="s">
         <v>508</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="33" t="s">
         <v>484</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="83.5" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="26"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="33"/>
       <c r="D21" s="6" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="41.75" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
-      <c r="B22" s="27"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="20" t="s">
         <v>486</v>
       </c>
@@ -12427,9 +12571,9 @@
         <v>487</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="55.7" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
-      <c r="B23" s="27"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="20" t="s">
         <v>490</v>
       </c>
@@ -12437,9 +12581,9 @@
         <v>488</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="370.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="361.85" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
-      <c r="B24" s="27"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="20" t="s">
         <v>585</v>
       </c>
@@ -12447,9 +12591,9 @@
         <v>586</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="55.7" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
-      <c r="B25" s="27"/>
+      <c r="B25" s="31"/>
       <c r="C25" s="20" t="s">
         <v>489</v>
       </c>
@@ -12457,9 +12601,9 @@
         <v>491</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="27.85" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
-      <c r="B26" s="27"/>
+      <c r="B26" s="31"/>
       <c r="C26" s="20" t="s">
         <v>492</v>
       </c>
@@ -12467,9 +12611,9 @@
         <v>493</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="61.15" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="31" t="s">
         <v>509</v>
       </c>
       <c r="C27" s="20" t="s">
@@ -12479,9 +12623,9 @@
         <v>514</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A28" s="32"/>
-      <c r="B28" s="27"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="20" t="s">
         <v>511</v>
       </c>
@@ -12489,9 +12633,9 @@
         <v>513</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.35">
       <c r="A29" s="32"/>
-      <c r="B29" s="27"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="20" t="s">
         <v>512</v>
       </c>
@@ -12499,9 +12643,9 @@
         <v>515</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="69.599999999999994" x14ac:dyDescent="0.25">
       <c r="A30" s="32"/>
-      <c r="B30" s="27"/>
+      <c r="B30" s="31"/>
       <c r="C30" s="20" t="s">
         <v>516</v>
       </c>
@@ -12509,9 +12653,9 @@
         <v>517</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="41.75" x14ac:dyDescent="0.25">
       <c r="A31" s="32"/>
-      <c r="B31" s="27"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="20" t="s">
         <v>519</v>
       </c>
@@ -12519,9 +12663,9 @@
         <v>520</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="41.75" x14ac:dyDescent="0.25">
       <c r="A32" s="32"/>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="31" t="s">
         <v>522</v>
       </c>
       <c r="C32" s="20" t="s">
@@ -12531,9 +12675,9 @@
         <v>523</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="27.85" x14ac:dyDescent="0.25">
       <c r="A33" s="32"/>
-      <c r="B33" s="27"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="20" t="s">
         <v>280</v>
       </c>
@@ -12541,9 +12685,9 @@
         <v>524</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A34" s="32"/>
-      <c r="B34" s="27"/>
+      <c r="B34" s="31"/>
       <c r="C34" s="20" t="s">
         <v>531</v>
       </c>
@@ -12551,9 +12695,9 @@
         <v>548</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="220.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="220.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="32"/>
-      <c r="B35" s="27"/>
+      <c r="B35" s="31"/>
       <c r="C35" s="20" t="s">
         <v>532</v>
       </c>
@@ -12561,9 +12705,9 @@
         <v>533</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="83.5" x14ac:dyDescent="0.25">
       <c r="A36" s="32"/>
-      <c r="B36" s="27"/>
+      <c r="B36" s="31"/>
       <c r="C36" s="20" t="s">
         <v>525</v>
       </c>
@@ -12571,9 +12715,9 @@
         <v>553</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="339.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="339.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="32"/>
-      <c r="B37" s="27"/>
+      <c r="B37" s="31"/>
       <c r="C37" s="20" t="s">
         <v>526</v>
       </c>
@@ -12581,9 +12725,9 @@
         <v>552</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="299.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="292.25" x14ac:dyDescent="0.25">
       <c r="A38" s="32"/>
-      <c r="B38" s="27"/>
+      <c r="B38" s="31"/>
       <c r="C38" s="20" t="s">
         <v>527</v>
       </c>
@@ -12591,9 +12735,9 @@
         <v>528</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="139.19999999999999" x14ac:dyDescent="0.25">
       <c r="A39" s="32"/>
-      <c r="B39" s="27"/>
+      <c r="B39" s="31"/>
       <c r="C39" s="20" t="s">
         <v>529</v>
       </c>
@@ -12601,9 +12745,9 @@
         <v>530</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="153.1" x14ac:dyDescent="0.25">
       <c r="A40" s="32"/>
-      <c r="B40" s="27"/>
+      <c r="B40" s="31"/>
       <c r="C40" s="20" t="s">
         <v>535</v>
       </c>
@@ -12611,9 +12755,9 @@
         <v>536</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="83.5" x14ac:dyDescent="0.25">
       <c r="A41" s="32"/>
-      <c r="B41" s="27"/>
+      <c r="B41" s="31"/>
       <c r="C41" s="20" t="s">
         <v>540</v>
       </c>
@@ -12621,9 +12765,9 @@
         <v>541</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="216" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="210.55" x14ac:dyDescent="0.25">
       <c r="A42" s="32"/>
-      <c r="B42" s="27"/>
+      <c r="B42" s="31"/>
       <c r="C42" s="20" t="s">
         <v>537</v>
       </c>
@@ -12631,9 +12775,9 @@
         <v>551</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="208.75" x14ac:dyDescent="0.25">
       <c r="A43" s="32"/>
-      <c r="B43" s="27"/>
+      <c r="B43" s="31"/>
       <c r="C43" s="20" t="s">
         <v>538</v>
       </c>
@@ -12641,9 +12785,9 @@
         <v>539</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="69.599999999999994" x14ac:dyDescent="0.25">
       <c r="A44" s="32"/>
-      <c r="B44" s="27"/>
+      <c r="B44" s="31"/>
       <c r="C44" s="20" t="s">
         <v>542</v>
       </c>
@@ -12651,61 +12795,61 @@
         <v>543</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="43.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="43.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="32"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="26" t="s">
+      <c r="B45" s="31"/>
+      <c r="C45" s="33" t="s">
         <v>544</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="299.25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="292.25" x14ac:dyDescent="0.25">
       <c r="A46" s="32"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="26"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="33"/>
       <c r="D46" s="6" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="55.7" x14ac:dyDescent="0.25">
       <c r="A47" s="32"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="26"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="33"/>
       <c r="D47" s="6" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="289.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="289.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="32"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="26"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="33"/>
       <c r="D48" s="13" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="199.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="194.85" x14ac:dyDescent="0.25">
       <c r="A49" s="32"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="26" t="s">
+      <c r="B49" s="31"/>
+      <c r="C49" s="33" t="s">
         <v>554</v>
       </c>
       <c r="D49" s="9" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="258.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="259" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="32"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="26"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="33"/>
       <c r="D50" s="9" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="199.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="208.75" x14ac:dyDescent="0.25">
       <c r="A51" s="32"/>
-      <c r="B51" s="27" t="s">
+      <c r="B51" s="31" t="s">
         <v>556</v>
       </c>
       <c r="C51" s="20" t="s">
@@ -12715,9 +12859,9 @@
         <v>558</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="139.19999999999999" x14ac:dyDescent="0.25">
       <c r="A52" s="32"/>
-      <c r="B52" s="27"/>
+      <c r="B52" s="31"/>
       <c r="C52" s="20" t="s">
         <v>559</v>
       </c>
@@ -12725,35 +12869,35 @@
         <v>560</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="256.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="250.5" x14ac:dyDescent="0.25">
       <c r="A53" s="32"/>
-      <c r="B53" s="27"/>
-      <c r="C53" s="26" t="s">
+      <c r="B53" s="31"/>
+      <c r="C53" s="33" t="s">
         <v>561</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="405.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="406" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="32"/>
-      <c r="B54" s="27"/>
-      <c r="C54" s="26"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="33"/>
       <c r="D54" s="21" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="199.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="208.75" x14ac:dyDescent="0.25">
       <c r="A55" s="32"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="26"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="33"/>
       <c r="D55" s="6" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="76.349999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="76.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="32"/>
-      <c r="B56" s="27"/>
+      <c r="B56" s="31"/>
       <c r="C56" s="20" t="s">
         <v>565</v>
       </c>
@@ -12761,25 +12905,25 @@
         <v>566</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="248.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="248.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="32"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="26" t="s">
+      <c r="B57" s="31"/>
+      <c r="C57" s="33" t="s">
         <v>567</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="182.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" ht="182.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="32"/>
-      <c r="B58" s="27"/>
-      <c r="C58" s="26"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="33"/>
       <c r="D58" s="6"/>
     </row>
-    <row r="59" spans="1:4" ht="187.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="187.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="32"/>
-      <c r="B59" s="27" t="s">
+      <c r="B59" s="31" t="s">
         <v>569</v>
       </c>
       <c r="C59" s="20" t="s">
@@ -12789,9 +12933,9 @@
         <v>571</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="228.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="228.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="32"/>
-      <c r="B60" s="27"/>
+      <c r="B60" s="31"/>
       <c r="C60" s="20" t="s">
         <v>572</v>
       </c>
@@ -12799,9 +12943,9 @@
         <v>573</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="156.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="156.69999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="32"/>
-      <c r="B61" s="27"/>
+      <c r="B61" s="31"/>
       <c r="C61" s="20" t="s">
         <v>574</v>
       </c>
@@ -12809,9 +12953,9 @@
         <v>575</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="32"/>
-      <c r="B62" s="27"/>
+      <c r="B62" s="31"/>
       <c r="C62" s="20" t="s">
         <v>576</v>
       </c>
@@ -12819,9 +12963,9 @@
         <v>577</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" ht="41.75" x14ac:dyDescent="0.25">
       <c r="A63" s="32"/>
-      <c r="B63" s="27"/>
+      <c r="B63" s="31"/>
       <c r="C63" s="20" t="s">
         <v>578</v>
       </c>
@@ -12829,9 +12973,9 @@
         <v>579</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" ht="97.45" x14ac:dyDescent="0.25">
       <c r="A64" s="32"/>
-      <c r="B64" s="27"/>
+      <c r="B64" s="31"/>
       <c r="C64" s="20" t="s">
         <v>580</v>
       </c>
@@ -12839,94 +12983,94 @@
         <v>581</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="27" t="s">
+    <row r="65" spans="1:4" ht="139.19999999999999" x14ac:dyDescent="0.25">
+      <c r="A65" s="31" t="s">
         <v>587</v>
       </c>
-      <c r="B65" s="33" t="s">
+      <c r="B65" s="35" t="s">
         <v>613</v>
       </c>
-      <c r="C65" s="26" t="s">
+      <c r="C65" s="33" t="s">
         <v>589</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="214.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="27"/>
-      <c r="B66" s="34"/>
-      <c r="C66" s="26"/>
+    <row r="66" spans="1:4" ht="214.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="31"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="33"/>
       <c r="D66" s="9" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="222" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="27"/>
-      <c r="B67" s="33" t="s">
+    <row r="67" spans="1:4" ht="222.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="31"/>
+      <c r="B67" s="35" t="s">
         <v>614</v>
       </c>
-      <c r="C67" s="26" t="s">
+      <c r="C67" s="33" t="s">
         <v>592</v>
       </c>
       <c r="D67" s="9" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="309.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="27"/>
-      <c r="B68" s="35"/>
-      <c r="C68" s="26"/>
+    <row r="68" spans="1:4" ht="309.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="31"/>
+      <c r="B68" s="37"/>
+      <c r="C68" s="33"/>
       <c r="D68" s="6" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="213.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="27"/>
-      <c r="B69" s="34"/>
-      <c r="C69" s="26"/>
+    <row r="69" spans="1:4" ht="208.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="31"/>
+      <c r="B69" s="36"/>
+      <c r="C69" s="33"/>
       <c r="D69" s="6" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="27"/>
+    <row r="70" spans="1:4" ht="41.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="31"/>
       <c r="B70" s="23"/>
-      <c r="C70" s="26" t="s">
+      <c r="C70" s="33" t="s">
         <v>596</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="248.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="27"/>
-      <c r="B71" s="35" t="s">
+    <row r="71" spans="1:4" ht="248.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="31"/>
+      <c r="B71" s="37" t="s">
         <v>615</v>
       </c>
-      <c r="C71" s="26"/>
+      <c r="C71" s="33"/>
       <c r="D71" s="9" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="171" x14ac:dyDescent="0.2">
-      <c r="A72" s="27"/>
-      <c r="B72" s="35"/>
-      <c r="C72" s="26"/>
+    <row r="72" spans="1:4" ht="194.85" x14ac:dyDescent="0.25">
+      <c r="A72" s="31"/>
+      <c r="B72" s="37"/>
+      <c r="C72" s="33"/>
       <c r="D72" s="6" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="219" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="27"/>
-      <c r="B73" s="34"/>
-      <c r="C73" s="26"/>
+    <row r="73" spans="1:4" ht="219.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="31"/>
+      <c r="B73" s="36"/>
+      <c r="C73" s="33"/>
       <c r="D73" s="6" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A74" s="27"/>
+    <row r="74" spans="1:4" ht="55.7" x14ac:dyDescent="0.25">
+      <c r="A74" s="31"/>
       <c r="B74" s="19"/>
       <c r="C74" s="20" t="s">
         <v>605</v>
@@ -12935,53 +13079,53 @@
         <v>606</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="27"/>
-      <c r="B75" s="33" t="s">
+    <row r="75" spans="1:4" ht="41.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="31"/>
+      <c r="B75" s="35" t="s">
         <v>616</v>
       </c>
-      <c r="C75" s="26" t="s">
+      <c r="C75" s="33" t="s">
         <v>601</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A76" s="27"/>
-      <c r="B76" s="35"/>
-      <c r="C76" s="26"/>
+    <row r="76" spans="1:4" ht="83.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="31"/>
+      <c r="B76" s="37"/>
+      <c r="C76" s="33"/>
       <c r="D76" s="6" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="256.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="27"/>
-      <c r="B77" s="35"/>
-      <c r="C77" s="36" t="s">
+    <row r="77" spans="1:4" ht="256.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="31"/>
+      <c r="B77" s="37"/>
+      <c r="C77" s="38" t="s">
         <v>604</v>
       </c>
       <c r="D77" s="6"/>
     </row>
-    <row r="78" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A78" s="27"/>
-      <c r="B78" s="35"/>
-      <c r="C78" s="37"/>
+    <row r="78" spans="1:4" ht="69.599999999999994" x14ac:dyDescent="0.25">
+      <c r="A78" s="31"/>
+      <c r="B78" s="37"/>
+      <c r="C78" s="39"/>
       <c r="D78" s="6" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="268.14999999999998" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="27"/>
-      <c r="B79" s="35"/>
-      <c r="C79" s="38"/>
+    <row r="79" spans="1:4" ht="268.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="31"/>
+      <c r="B79" s="37"/>
+      <c r="C79" s="40"/>
       <c r="D79" s="6" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="27"/>
-      <c r="B80" s="34"/>
+    <row r="80" spans="1:4" ht="139.19999999999999" x14ac:dyDescent="0.25">
+      <c r="A80" s="31"/>
+      <c r="B80" s="36"/>
       <c r="C80" s="20" t="s">
         <v>609</v>
       </c>
@@ -12989,8 +13133,8 @@
         <v>612</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="341.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="27"/>
+    <row r="81" spans="1:4" ht="341.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="31"/>
       <c r="B81" s="19" t="s">
         <v>617</v>
       </c>
@@ -13001,241 +13145,241 @@
         <v>611</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
       <c r="B82" s="19"/>
       <c r="C82" s="22"/>
       <c r="D82" s="6"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
       <c r="B83" s="19"/>
       <c r="C83" s="22"/>
       <c r="D83" s="6"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
       <c r="B84" s="19"/>
       <c r="C84" s="22"/>
       <c r="D84" s="6"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
       <c r="B85" s="19"/>
       <c r="C85" s="22"/>
       <c r="D85" s="6"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="5"/>
       <c r="B86" s="19"/>
       <c r="C86" s="22"/>
       <c r="D86" s="6"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
       <c r="B87" s="19"/>
       <c r="C87" s="22"/>
       <c r="D87" s="6"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
       <c r="B88" s="19"/>
       <c r="C88" s="22"/>
       <c r="D88" s="6"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
       <c r="B89" s="19"/>
       <c r="C89" s="22"/>
       <c r="D89" s="6"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
       <c r="B90" s="19"/>
       <c r="C90" s="22"/>
       <c r="D90" s="6"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
       <c r="B91" s="19"/>
       <c r="C91" s="22"/>
       <c r="D91" s="6"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
       <c r="B92" s="19"/>
       <c r="C92" s="22"/>
       <c r="D92" s="6"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
       <c r="B93" s="19"/>
       <c r="C93" s="22"/>
       <c r="D93" s="6"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
       <c r="B94" s="19"/>
       <c r="C94" s="22"/>
       <c r="D94" s="6"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
       <c r="B95" s="19"/>
       <c r="C95" s="22"/>
       <c r="D95" s="6"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="5"/>
       <c r="B96" s="19"/>
       <c r="C96" s="22"/>
       <c r="D96" s="6"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="5"/>
       <c r="B97" s="19"/>
       <c r="C97" s="22"/>
       <c r="D97" s="6"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="5"/>
       <c r="B98" s="19"/>
       <c r="C98" s="22"/>
       <c r="D98" s="6"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="5"/>
       <c r="B99" s="19"/>
       <c r="C99" s="22"/>
       <c r="D99" s="6"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="5"/>
       <c r="B100" s="19"/>
       <c r="C100" s="22"/>
       <c r="D100" s="6"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="5"/>
       <c r="B101" s="19"/>
       <c r="C101" s="22"/>
       <c r="D101" s="6"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="5"/>
       <c r="B102" s="19"/>
       <c r="C102" s="22"/>
       <c r="D102" s="6"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="5"/>
       <c r="B103" s="19"/>
       <c r="C103" s="22"/>
       <c r="D103" s="6"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="5"/>
       <c r="B104" s="19"/>
       <c r="C104" s="22"/>
       <c r="D104" s="6"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="5"/>
       <c r="B105" s="19"/>
       <c r="C105" s="22"/>
       <c r="D105" s="6"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="5"/>
       <c r="B106" s="19"/>
       <c r="C106" s="22"/>
       <c r="D106" s="6"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="5"/>
       <c r="B107" s="19"/>
       <c r="C107" s="22"/>
       <c r="D107" s="6"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="5"/>
       <c r="B108" s="19"/>
       <c r="C108" s="22"/>
       <c r="D108" s="6"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="5"/>
       <c r="B109" s="19"/>
       <c r="C109" s="22"/>
       <c r="D109" s="6"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="5"/>
       <c r="B110" s="19"/>
       <c r="C110" s="22"/>
       <c r="D110" s="6"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="5"/>
       <c r="B111" s="19"/>
       <c r="C111" s="22"/>
       <c r="D111" s="6"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="5"/>
       <c r="B112" s="19"/>
       <c r="C112" s="22"/>
       <c r="D112" s="6"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="5"/>
       <c r="B113" s="19"/>
       <c r="C113" s="22"/>
       <c r="D113" s="6"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="5"/>
       <c r="B114" s="19"/>
       <c r="C114" s="22"/>
       <c r="D114" s="6"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="5"/>
       <c r="B115" s="19"/>
       <c r="C115" s="22"/>
       <c r="D115" s="6"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="5"/>
       <c r="B116" s="19"/>
       <c r="C116" s="22"/>
       <c r="D116" s="6"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="5"/>
       <c r="B117" s="19"/>
       <c r="C117" s="22"/>
       <c r="D117" s="6"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="5"/>
       <c r="B118" s="19"/>
       <c r="C118" s="22"/>
       <c r="D118" s="6"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="5"/>
       <c r="B119" s="19"/>
       <c r="C119" s="22"/>
       <c r="D119" s="6"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="5"/>
       <c r="B120" s="19"/>
       <c r="C120" s="22"/>
       <c r="D120" s="6"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="5"/>
       <c r="B121" s="19"/>
       <c r="C121" s="20"/>
@@ -13243,6 +13387,21 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A2:A64"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="A65:A81"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B75:B80"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="C70:C73"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B20:B26"/>
     <mergeCell ref="B8:B19"/>
@@ -13255,21 +13414,6 @@
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="B32:B50"/>
     <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="A65:A81"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B75:B80"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="A2:A64"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B4:B5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13282,19 +13426,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86CC7E8C-54F9-4E52-8516-1D7D6D80D0D1}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="88.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="88.21875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -13308,11 +13452,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:4" ht="69.599999999999994" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
         <v>618</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="31" t="s">
         <v>619</v>
       </c>
       <c r="C2" s="25" t="s">
@@ -13322,9 +13466,9 @@
         <v>620</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="35"/>
-      <c r="B3" s="27"/>
+    <row r="3" spans="1:4" ht="97.45" x14ac:dyDescent="0.25">
+      <c r="A3" s="37"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="25" t="s">
         <v>187</v>
       </c>
@@ -13332,71 +13476,71 @@
         <v>621</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="114" x14ac:dyDescent="0.2">
-      <c r="A4" s="35"/>
-      <c r="B4" s="33" t="s">
+    <row r="4" spans="1:4" ht="125.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="37"/>
+      <c r="B4" s="35" t="s">
         <v>622</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="33" t="s">
         <v>623</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="399" x14ac:dyDescent="0.2">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="26"/>
+    <row r="5" spans="1:4" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="6" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="222" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="26"/>
+    <row r="6" spans="1:4" ht="222.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="33"/>
       <c r="D6" s="9" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="26"/>
+    <row r="7" spans="1:4" ht="139.19999999999999" x14ac:dyDescent="0.25">
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="6" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="26" t="s">
+    <row r="8" spans="1:4" ht="69.599999999999994" x14ac:dyDescent="0.25">
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="33" t="s">
         <v>682</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="26"/>
+    <row r="9" spans="1:4" ht="27.85" x14ac:dyDescent="0.25">
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="6" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="242.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="35"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="26"/>
+    <row r="10" spans="1:4" ht="250.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="37"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="8" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="35"/>
-      <c r="B11" s="27" t="s">
+    <row r="11" spans="1:4" ht="42.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="37"/>
+      <c r="B11" s="31" t="s">
         <v>631</v>
       </c>
       <c r="C11" s="25" t="s">
@@ -13406,9 +13550,9 @@
         <v>629</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="270.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="35"/>
-      <c r="B12" s="27"/>
+    <row r="12" spans="1:4" ht="264.39999999999998" x14ac:dyDescent="0.25">
+      <c r="A12" s="37"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="25" t="s">
         <v>632</v>
       </c>
@@ -13416,9 +13560,9 @@
         <v>630</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="35"/>
-      <c r="B13" s="27"/>
+    <row r="13" spans="1:4" ht="27.85" x14ac:dyDescent="0.25">
+      <c r="A13" s="37"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="25" t="s">
         <v>634</v>
       </c>
@@ -13426,9 +13570,9 @@
         <v>635</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="114" x14ac:dyDescent="0.2">
-      <c r="A14" s="35"/>
-      <c r="B14" s="27"/>
+    <row r="14" spans="1:4" ht="125.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="37"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="25" t="s">
         <v>633</v>
       </c>
@@ -13436,9 +13580,9 @@
         <v>636</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="35"/>
-      <c r="B15" s="27"/>
+    <row r="15" spans="1:4" ht="41.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="37"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="25" t="s">
         <v>637</v>
       </c>
@@ -13446,9 +13590,9 @@
         <v>638</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A16" s="35"/>
-      <c r="B16" s="27"/>
+    <row r="16" spans="1:4" ht="55.7" x14ac:dyDescent="0.25">
+      <c r="A16" s="37"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="25" t="s">
         <v>639</v>
       </c>
@@ -13456,9 +13600,9 @@
         <v>640</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="35"/>
-      <c r="B17" s="27"/>
+    <row r="17" spans="1:4" ht="27.85" x14ac:dyDescent="0.25">
+      <c r="A17" s="37"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="25" t="s">
         <v>641</v>
       </c>
@@ -13466,9 +13610,9 @@
         <v>642</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="186" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="35"/>
-      <c r="B18" s="27"/>
+    <row r="18" spans="1:4" ht="186.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="37"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="25" t="s">
         <v>643</v>
       </c>
@@ -13476,9 +13620,9 @@
         <v>644</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="35"/>
-      <c r="B19" s="27"/>
+    <row r="19" spans="1:4" ht="27.85" x14ac:dyDescent="0.25">
+      <c r="A19" s="37"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="25" t="s">
         <v>645</v>
       </c>
@@ -13486,9 +13630,9 @@
         <v>646</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="35"/>
-      <c r="B20" s="27"/>
+    <row r="20" spans="1:4" ht="41.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="37"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="25" t="s">
         <v>647</v>
       </c>
@@ -13496,22 +13640,22 @@
         <v>648</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="35"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="26" t="s">
+    <row r="21" spans="1:4" ht="134.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="37"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="33" t="s">
         <v>649</v>
       </c>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4" ht="278.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="35"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="26"/>
+    <row r="22" spans="1:4" ht="278.35000000000002" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="37"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="33"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" ht="242.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="35"/>
+    <row r="23" spans="1:4" ht="250.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="37"/>
       <c r="B23" s="24" t="s">
         <v>650</v>
       </c>
@@ -13522,9 +13666,9 @@
         <v>652</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="35"/>
-      <c r="B24" s="27" t="s">
+    <row r="24" spans="1:4" ht="125.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="37"/>
+      <c r="B24" s="31" t="s">
         <v>653</v>
       </c>
       <c r="C24" s="25" t="s">
@@ -13534,9 +13678,9 @@
         <v>658</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="35"/>
-      <c r="B25" s="27"/>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="37"/>
+      <c r="B25" s="31"/>
       <c r="C25" s="25" t="s">
         <v>657</v>
       </c>
@@ -13544,9 +13688,9 @@
         <v>659</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="35"/>
-      <c r="B26" s="27"/>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="37"/>
+      <c r="B26" s="31"/>
       <c r="C26" s="25" t="s">
         <v>655</v>
       </c>
@@ -13554,9 +13698,9 @@
         <v>656</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="35"/>
-      <c r="B27" s="27"/>
+    <row r="27" spans="1:4" ht="69.599999999999994" x14ac:dyDescent="0.25">
+      <c r="A27" s="37"/>
+      <c r="B27" s="31"/>
       <c r="C27" s="25" t="s">
         <v>662</v>
       </c>
@@ -13564,41 +13708,41 @@
         <v>661</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="35"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="26" t="s">
+    <row r="28" spans="1:4" ht="28.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="37"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="33" t="s">
         <v>663</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="35"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="26"/>
+    <row r="29" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="37"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="33"/>
       <c r="D29" s="6"/>
     </row>
-    <row r="30" spans="1:4" ht="189.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="35"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="26"/>
+    <row r="30" spans="1:4" ht="189.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="37"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="33"/>
       <c r="D30" s="21" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="287.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="35"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="26"/>
+    <row r="31" spans="1:4" ht="287.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="37"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="33"/>
       <c r="D31" s="21" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="370.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="35"/>
-      <c r="B32" s="27"/>
+    <row r="32" spans="1:4" ht="389.65" x14ac:dyDescent="0.25">
+      <c r="A32" s="37"/>
+      <c r="B32" s="31"/>
       <c r="C32" s="25" t="s">
         <v>664</v>
       </c>
@@ -13606,33 +13750,33 @@
         <v>666</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="346.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="35"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="26" t="s">
+    <row r="33" spans="1:4" ht="346.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="37"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="33" t="s">
         <v>681</v>
       </c>
       <c r="D33" s="13" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="234" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="35"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="26"/>
+    <row r="34" spans="1:4" ht="234" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="37"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="33"/>
       <c r="D34" s="6"/>
     </row>
-    <row r="35" spans="1:4" ht="147.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="35"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="26"/>
+    <row r="35" spans="1:4" ht="147.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="37"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="33"/>
       <c r="D35" s="9" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="242.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="35"/>
-      <c r="B36" s="27"/>
+    <row r="36" spans="1:4" ht="236.6" x14ac:dyDescent="0.25">
+      <c r="A36" s="37"/>
+      <c r="B36" s="31"/>
       <c r="C36" s="25" t="s">
         <v>668</v>
       </c>
@@ -13640,9 +13784,9 @@
         <v>671</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="384.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="35"/>
-      <c r="B37" s="27"/>
+    <row r="37" spans="1:4" ht="389.65" x14ac:dyDescent="0.25">
+      <c r="A37" s="37"/>
+      <c r="B37" s="31"/>
       <c r="C37" s="25" t="s">
         <v>667</v>
       </c>
@@ -13650,27 +13794,27 @@
         <v>674</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="35"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="26" t="s">
+    <row r="38" spans="1:4" ht="65.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="37"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="33" t="s">
         <v>675</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="114" x14ac:dyDescent="0.2">
-      <c r="A39" s="35"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="26"/>
+    <row r="39" spans="1:4" ht="111.35" x14ac:dyDescent="0.25">
+      <c r="A39" s="37"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="33"/>
       <c r="D39" s="6" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="114" x14ac:dyDescent="0.2">
-      <c r="A40" s="35"/>
-      <c r="B40" s="27"/>
+    <row r="40" spans="1:4" ht="125.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="37"/>
+      <c r="B40" s="31"/>
       <c r="C40" s="25" t="s">
         <v>678</v>
       </c>
@@ -13678,9 +13822,9 @@
         <v>660</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="34"/>
-      <c r="B41" s="27"/>
+    <row r="41" spans="1:4" ht="125.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="36"/>
+      <c r="B41" s="31"/>
       <c r="C41" s="25" t="s">
         <v>665</v>
       </c>
@@ -13690,17 +13834,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="B24:B41"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B11:B22"/>
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C28:C31"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="A2:A41"/>
     <mergeCell ref="B4:B10"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="B24:B41"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B11:B22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13711,15 +13855,66 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4C189F-4FEB-487F-A7E3-4EA4F3031480}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="88.21875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="69.599999999999994" x14ac:dyDescent="0.25">
+      <c r="A2" s="41" t="s">
+        <v>687</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>688</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="289.85000000000002" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="11" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="208.75" x14ac:dyDescent="0.25">
+      <c r="C4" s="11" t="s">
+        <v>691</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>692</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -13729,7 +13924,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13744,7 +13939,7 @@
       <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
